--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
@@ -1,86 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TranDuy\GitHubTraining\doc\backend\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="818" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
     <sheet name="Update History" sheetId="12" r:id="rId2"/>
     <sheet name="Table List" sheetId="4" r:id="rId3"/>
-    <sheet name="user" sheetId="5" r:id="rId4"/>
-    <sheet name="edition" sheetId="36" state="hidden" r:id="rId5"/>
-    <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId6"/>
-    <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId7"/>
+    <sheet name="users" sheetId="5" r:id="rId4"/>
+    <sheet name="posts" sheetId="39" r:id="rId5"/>
+    <sheet name="comments" sheetId="40" r:id="rId6"/>
+    <sheet name="edition" sheetId="36" state="hidden" r:id="rId7"/>
+    <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId8"/>
+    <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="②画面" localSheetId="5">#REF!</definedName>
+    <definedName name="②画面" localSheetId="6">#REF!</definedName>
+    <definedName name="②画面" localSheetId="4">#REF!</definedName>
+    <definedName name="②画面" localSheetId="8">#REF!</definedName>
+    <definedName name="②画面" localSheetId="7">#REF!</definedName>
+    <definedName name="②画面">#REF!</definedName>
+    <definedName name="③画面" localSheetId="5">#REF!</definedName>
+    <definedName name="③画面" localSheetId="6">#REF!</definedName>
+    <definedName name="③画面" localSheetId="4">#REF!</definedName>
+    <definedName name="③画面" localSheetId="8">#REF!</definedName>
+    <definedName name="③画面" localSheetId="7">#REF!</definedName>
+    <definedName name="③画面">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="6">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="8">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑤画面">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="6">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="8">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑧画面">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="6">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="8">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑨画面">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="6">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="4">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="8">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑫画面">#REF!</definedName>
-    <definedName name="②画面" localSheetId="4">#REF!</definedName>
-    <definedName name="②画面" localSheetId="6">#REF!</definedName>
-    <definedName name="②画面" localSheetId="5">#REF!</definedName>
-    <definedName name="②画面">#REF!</definedName>
-    <definedName name="③画面" localSheetId="4">#REF!</definedName>
-    <definedName name="③画面" localSheetId="6">#REF!</definedName>
-    <definedName name="③画面" localSheetId="5">#REF!</definedName>
-    <definedName name="③画面">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="4">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="5">#REF!</definedName>
-    <definedName name="⑤画面">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="4">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="5">#REF!</definedName>
-    <definedName name="⑧画面">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="4">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="5">#REF!</definedName>
-    <definedName name="⑨画面">#REF!</definedName>
+    <definedName name="a">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="5">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="6">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="4">#REF!</definedName>
-    <definedName name="AAAAAA" localSheetId="5">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="7">#REF!</definedName>
     <definedName name="AAAAAA">#REF!</definedName>
+    <definedName name="as" localSheetId="5">#REF!</definedName>
+    <definedName name="as" localSheetId="6">#REF!</definedName>
     <definedName name="as" localSheetId="4">#REF!</definedName>
-    <definedName name="as" localSheetId="5">#REF!</definedName>
+    <definedName name="as" localSheetId="7">#REF!</definedName>
     <definedName name="as">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="6">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="4">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="6">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="8">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="7">#REF!</definedName>
     <definedName name="ｄｄｄｄ">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="6">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="4">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="6">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="8">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="7">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ">#REF!</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="MySQL_DataType">[1]データタイプ!$B$2:$B$36</definedName>
     <definedName name="Oracle_DataType">[1]データタイプ!$A$2:$A$24</definedName>
+    <definedName name="あ" localSheetId="5">#REF!</definedName>
+    <definedName name="あ" localSheetId="6">#REF!</definedName>
     <definedName name="あ" localSheetId="4">#REF!</definedName>
-    <definedName name="あ" localSheetId="6">#REF!</definedName>
-    <definedName name="あ" localSheetId="5">#REF!</definedName>
+    <definedName name="あ" localSheetId="8">#REF!</definedName>
+    <definedName name="あ" localSheetId="7">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="5">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="6">#REF!</definedName>
     <definedName name="ステータス" localSheetId="4">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="6">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="5">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="8">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="7">#REF!</definedName>
     <definedName name="ステータス">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="5">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="6">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="4">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="6">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="5">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="8">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="7">#REF!</definedName>
     <definedName name="画面一覧">#REF!</definedName>
+    <definedName name="項番17" localSheetId="5">#REF!</definedName>
+    <definedName name="項番17" localSheetId="6">#REF!</definedName>
     <definedName name="項番17" localSheetId="4">#REF!</definedName>
-    <definedName name="項番17" localSheetId="6">#REF!</definedName>
-    <definedName name="項番17" localSheetId="5">#REF!</definedName>
+    <definedName name="項番17" localSheetId="8">#REF!</definedName>
+    <definedName name="項番17" localSheetId="7">#REF!</definedName>
     <definedName name="項番17">#REF!</definedName>
+    <definedName name="項番3" localSheetId="5">#REF!</definedName>
+    <definedName name="項番3" localSheetId="6">#REF!</definedName>
     <definedName name="項番3" localSheetId="4">#REF!</definedName>
-    <definedName name="項番3" localSheetId="6">#REF!</definedName>
-    <definedName name="項番3" localSheetId="5">#REF!</definedName>
+    <definedName name="項番3" localSheetId="8">#REF!</definedName>
+    <definedName name="項番3" localSheetId="7">#REF!</definedName>
     <definedName name="項番3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -90,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="177">
   <si>
     <t>No</t>
   </si>
@@ -257,9 +296,6 @@
     <t>VARCHAR(255)</t>
   </si>
   <si>
-    <t>VARCHAR(40)</t>
-  </si>
-  <si>
     <t>ranking</t>
   </si>
   <si>
@@ -387,9 +423,6 @@
   </si>
   <si>
     <t>version_id, rank_number, rank_type</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>create_dt</t>
@@ -411,15 +444,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>User info</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>10/10/2014</t>
-  </si>
-  <si>
     <t>User Info</t>
   </si>
   <si>
@@ -450,16 +474,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>System ID</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>last_login_dt</t>
-  </si>
-  <si>
-    <t>0: Inactive, 1: Active</t>
   </si>
   <si>
     <t>TINYINT(1)</t>
@@ -491,6 +509,165 @@
   <si>
     <t>…</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tran Anh Duy</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Users Info</t>
+  </si>
+  <si>
+    <t>Posts Info</t>
+  </si>
+  <si>
+    <t>Comments Info</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>brithdate</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>VARCHAR(99)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>0:Female; 1:Male</t>
+  </si>
+  <si>
+    <t>0: no admin; 1: admin</t>
+  </si>
+  <si>
+    <t>Post Title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Post Description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>Deactived</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>update_at</t>
+  </si>
+  <si>
+    <t>deactived</t>
+  </si>
+  <si>
+    <t>0: show post; 1: hide post</t>
+  </si>
+  <si>
+    <t>users_id</t>
+  </si>
+  <si>
+    <t>fk_posts_users1_idx</t>
+  </si>
+  <si>
+    <t>Post ID</t>
+  </si>
+  <si>
+    <t>Comment ID</t>
+  </si>
+  <si>
+    <t>Comment Title</t>
+  </si>
+  <si>
+    <t>Comment Description</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>0: show comment; 1: hide comment</t>
+  </si>
+  <si>
+    <t>posts_id</t>
+  </si>
+  <si>
+    <t>fk_comments_posts_idx</t>
+  </si>
+  <si>
+    <t>fk_comments_users1_idx</t>
   </si>
 </sst>
 </file>
@@ -498,14 +675,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -514,14 +691,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -535,7 +712,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,7 +727,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -611,7 +788,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -703,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1541,6 +1718,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2870,7 +3084,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2893,7 +3107,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3132,7 +3346,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3140,7 +3354,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3219,9 +3433,6 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3238,13 +3449,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3334,12 +3551,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3352,11 +3563,80 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="443">
@@ -3804,18 +4084,49 @@
     <cellStyle name="標準 4" xfId="2"/>
     <cellStyle name="標準 5" xfId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙"/>
@@ -4129,7 +4440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4164,7 +4475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4379,10 +4690,10 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="52" width="2.5" style="2" customWidth="1"/>
-    <col min="53" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="52" width="2.42578125" style="2" customWidth="1"/>
+    <col min="53" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -4439,7 +4750,7 @@
       <c r="AY1" s="109"/>
       <c r="AZ1" s="110"/>
     </row>
-    <row r="2" spans="1:52" ht="14" thickBot="1">
+    <row r="2" spans="1:52" ht="15" thickBot="1">
       <c r="A2" s="111"/>
       <c r="B2" s="112"/>
       <c r="C2" s="112"/>
@@ -5048,29 +5359,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="137"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="138"/>
+      <c r="AG13" s="138"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="138"/>
+      <c r="AJ13" s="138"/>
+      <c r="AK13" s="138"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5102,29 +5413,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="137"/>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="137"/>
-      <c r="AH14" s="137"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="137"/>
-      <c r="AK14" s="137"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="138"/>
+      <c r="W14" s="138"/>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="138"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="138"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="138"/>
+      <c r="AJ14" s="138"/>
+      <c r="AK14" s="138"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5152,43 +5463,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="138" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="138"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="138"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="138"/>
-      <c r="AG15" s="138"/>
-      <c r="AH15" s="138"/>
-      <c r="AI15" s="138"/>
-      <c r="AJ15" s="138"/>
-      <c r="AK15" s="138"/>
-      <c r="AL15" s="138"/>
-      <c r="AM15" s="138"/>
-      <c r="AN15" s="138"/>
-      <c r="AO15" s="138"/>
-      <c r="AP15" s="138"/>
-      <c r="AQ15" s="138"/>
-      <c r="AR15" s="138"/>
-      <c r="AS15" s="138"/>
+      <c r="K15" s="139" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="139"/>
+      <c r="AJ15" s="139"/>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="139"/>
+      <c r="AM15" s="139"/>
+      <c r="AN15" s="139"/>
+      <c r="AO15" s="139"/>
+      <c r="AP15" s="139"/>
+      <c r="AQ15" s="139"/>
+      <c r="AR15" s="139"/>
+      <c r="AS15" s="139"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5208,41 +5519,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="138"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="138"/>
-      <c r="AJ16" s="138"/>
-      <c r="AK16" s="138"/>
-      <c r="AL16" s="138"/>
-      <c r="AM16" s="138"/>
-      <c r="AN16" s="138"/>
-      <c r="AO16" s="138"/>
-      <c r="AP16" s="138"/>
-      <c r="AQ16" s="138"/>
-      <c r="AR16" s="138"/>
-      <c r="AS16" s="138"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="139"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="139"/>
+      <c r="AK16" s="139"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="139"/>
+      <c r="AN16" s="139"/>
+      <c r="AO16" s="139"/>
+      <c r="AP16" s="139"/>
+      <c r="AQ16" s="139"/>
+      <c r="AR16" s="139"/>
+      <c r="AS16" s="139"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -5251,7 +5562,7 @@
       <c r="AY16" s="4"/>
       <c r="AZ16" s="5"/>
     </row>
-    <row r="17" spans="1:52" ht="21">
+    <row r="17" spans="1:52" ht="23.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5791,7 +6102,7 @@
       <c r="AY26" s="4"/>
       <c r="AZ26" s="5"/>
     </row>
-    <row r="27" spans="1:52" ht="14" customHeight="1">
+    <row r="27" spans="1:52" ht="14.1" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5831,14 +6142,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="139">
+      <c r="AN27" s="140">
         <v>41922</v>
       </c>
-      <c r="AO27" s="139"/>
-      <c r="AP27" s="139"/>
-      <c r="AQ27" s="139"/>
-      <c r="AR27" s="139"/>
-      <c r="AS27" s="139"/>
+      <c r="AO27" s="140"/>
+      <c r="AP27" s="140"/>
+      <c r="AQ27" s="140"/>
+      <c r="AR27" s="140"/>
+      <c r="AS27" s="140"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6226,7 +6537,7 @@
       <c r="AY34" s="4"/>
       <c r="AZ34" s="5"/>
     </row>
-    <row r="35" spans="1:52" ht="14" thickBot="1">
+    <row r="35" spans="1:52" ht="15" thickBot="1">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -6302,24 +6613,24 @@
   <dimension ref="B1:F34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="89" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="88" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="88" customWidth="1"/>
-    <col min="5" max="5" width="67.6640625" style="89" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="89" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="89" customWidth="1"/>
-    <col min="8" max="14" width="10.5" style="89" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="88" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="88" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="89" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="89" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="89" customWidth="1"/>
+    <col min="8" max="14" width="10.42578125" style="89" customWidth="1"/>
     <col min="15" max="16384" width="9" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="12" thickBot="1"/>
-    <row r="2" spans="2:6" ht="12" thickBot="1">
+    <row r="1" spans="2:6" ht="12.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="12.75" thickBot="1">
       <c r="B2" s="90" t="s">
         <v>9</v>
       </c>
@@ -6338,14 +6649,14 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="93">
-        <v>41922</v>
+        <v>41651</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" s="96"/>
     </row>
@@ -6559,7 +6870,7 @@
       <c r="E33" s="99"/>
       <c r="F33" s="100"/>
     </row>
-    <row r="34" spans="2:6" ht="12" thickBot="1">
+    <row r="34" spans="2:6" ht="12.75" thickBot="1">
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
       <c r="D34" s="103"/>
@@ -6580,30 +6891,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="B4:C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="17" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="4.7109375" style="17" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:3" ht="12.75" thickBot="1">
+      <c r="A1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-    </row>
-    <row r="2" spans="1:3" ht="12" thickBot="1">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" thickBot="1">
       <c r="A2" s="118" t="s">
         <v>0</v>
       </c>
@@ -6614,32 +6925,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="121">
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="130" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="59">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="124"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="59">
         <f t="shared" ref="A5:A28" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="124"/>
+      <c r="B5" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="59">
@@ -6817,7 +7136,7 @@
       <c r="B27" s="123"/>
       <c r="C27" s="124"/>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1">
+    <row r="28" spans="1:3" ht="12.75" thickBot="1">
       <c r="A28" s="70">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6831,7 +7150,9 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="user!A1" display="user"/>
+    <hyperlink ref="C3" location="users!A1" display="users"/>
+    <hyperlink ref="C4" location="posts!A1" display="posts"/>
+    <hyperlink ref="C5" location="comments!A1" display="comments"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -6849,144 +7170,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="13"/>
-    <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="13"/>
+    <col min="11" max="11" width="17.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" style="13" customWidth="1"/>
     <col min="16" max="17" width="17" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="13"/>
+    <col min="18" max="18" width="15.42578125" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" thickBot="1">
+    <row r="1" spans="1:19" ht="12.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13">
+    <row r="2" spans="1:19" ht="14.25">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="142"/>
+      <c r="C2" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="143"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="145"/>
-    </row>
-    <row r="3" spans="1:19" ht="13">
+      <c r="F2" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="146"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="147"/>
-    </row>
-    <row r="4" spans="1:19" ht="13">
+      <c r="F3" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="148"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="144"/>
+      <c r="C4" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="145"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
-    </row>
-    <row r="5" spans="1:19" ht="13">
+      <c r="F4" s="144"/>
+      <c r="G4" s="148"/>
+    </row>
+    <row r="5" spans="1:19" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="145"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
-    </row>
-    <row r="6" spans="1:19" ht="13">
+      <c r="F5" s="144"/>
+      <c r="G5" s="148"/>
+    </row>
+    <row r="6" spans="1:19" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="144" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="145"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
-    </row>
-    <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="F6" s="144"/>
+      <c r="G6" s="148"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25">
+      <c r="B7" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="B9" s="159"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" thickBot="1">
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7012,46 +7335,46 @@
         <v>31</v>
       </c>
       <c r="I13" s="128" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J13" s="128" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K13" s="128" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L13" s="128"/>
       <c r="M13" s="128" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N13" s="128" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O13" s="128" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P13" s="128" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="128" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R13" s="128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S13" s="128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17">
+    <row r="14" spans="1:19" ht="15">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -7068,19 +7391,19 @@
         <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" s="136" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="N14" s="135" t="s">
+        <v>123</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P14" s="127">
         <v>41922.465277777781</v>
@@ -7095,45 +7418,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="17">
+    <row r="15" spans="1:19" ht="15">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H15" s="87"/>
       <c r="I15" s="13">
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N15" s="136" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="N15" s="135" t="s">
+        <v>122</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P15" s="127">
         <v>41922.46875</v>
@@ -7150,13 +7473,21 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="59">
-        <f t="shared" ref="A16:A24" si="0">A15+1</f>
+        <f t="shared" ref="A16:A23" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="B16" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F16" s="67"/>
       <c r="G16" s="117"/>
       <c r="H16" s="87"/>
@@ -7166,10 +7497,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="B17" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F17" s="67"/>
       <c r="G17" s="117"/>
     </row>
@@ -7178,10 +7517,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="67"/>
       <c r="G18" s="106"/>
     </row>
@@ -7190,10 +7537,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="66"/>
+      <c r="B19" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="67"/>
       <c r="G19" s="106"/>
     </row>
@@ -7202,22 +7557,42 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="106"/>
+      <c r="B20" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="B21" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F21" s="67"/>
       <c r="G21" s="106"/>
     </row>
@@ -7227,20 +7602,20 @@
         <v>9</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="67"/>
       <c r="G22" s="106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7249,13 +7624,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E23" s="66" t="s">
         <v>3</v>
@@ -7263,46 +7638,45 @@
       <c r="F23" s="67"/>
       <c r="G23" s="106"/>
     </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1">
+    <row r="24" spans="1:7" ht="12.75" thickBot="1">
       <c r="A24" s="70">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="133" t="s">
+      <c r="B24" s="130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="134" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12" thickBot="1">
+      <c r="F24" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="24">
       <c r="A27" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="149"/>
+      <c r="D27" s="150"/>
       <c r="E27" s="34" t="s">
         <v>33</v>
       </c>
@@ -7313,17 +7687,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="14">
         <v>1</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="163"/>
+      <c r="C28" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="164"/>
       <c r="E28" s="46" t="s">
         <v>3</v>
       </c>
@@ -7332,72 +7706,72 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" ht="13" customHeight="1">
+    <row r="29" spans="1:7" ht="12.95" customHeight="1">
       <c r="A29" s="57">
         <v>2</v>
       </c>
       <c r="B29" s="51"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
       <c r="G29" s="53"/>
     </row>
-    <row r="30" spans="1:7" ht="13" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
       <c r="A30" s="56">
         <v>3</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="12" thickBot="1">
+    <row r="32" spans="1:7" ht="12.75" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" thickBot="1">
+    <row r="33" spans="1:7" ht="15" thickBot="1">
       <c r="A33" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="150" t="s">
+      <c r="C33" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="151"/>
-      <c r="E33" s="150" t="s">
+      <c r="D33" s="152"/>
+      <c r="E33" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="164"/>
+      <c r="F33" s="165"/>
       <c r="G33" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12" thickBot="1">
+    <row r="35" spans="1:7" ht="12.75" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14" thickBot="1">
+    <row r="36" spans="1:7" ht="15" thickBot="1">
       <c r="A36" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="150" t="s">
+      <c r="D36" s="152"/>
+      <c r="E36" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="164"/>
+      <c r="F36" s="165"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
@@ -7442,7 +7816,1183 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="13"/>
+    <col min="11" max="11" width="17.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" style="13" customWidth="1"/>
+    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="12.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14.25">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="143"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="146"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="148"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.25">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="145"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="144"/>
+      <c r="G4" s="148"/>
+    </row>
+    <row r="5" spans="1:19" ht="24">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="145"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="148"/>
+    </row>
+    <row r="6" spans="1:19" ht="24">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="145"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="148"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25">
+      <c r="B7" s="153" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="159"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" thickBot="1">
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="Q14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="R14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="S14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15">
+      <c r="A15" s="59">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="13">
+        <v>2</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="Q15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="R15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="S15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="59">
+        <f t="shared" ref="A16:A19" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="87"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="117"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="106"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A20" s="70">
+        <v>7</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="132"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="133"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24">
+      <c r="A23" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="150"/>
+      <c r="E23" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="14">
+        <v>1</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="164"/>
+      <c r="E24" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A25" s="57">
+        <v>2</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A26" s="56">
+        <v>3</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1">
+      <c r="A29" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="152"/>
+      <c r="E29" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="165"/>
+      <c r="G29" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="181">
+        <v>1</v>
+      </c>
+      <c r="B30" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="183" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="183"/>
+      <c r="G30" s="184" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1">
+      <c r="A32" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="152"/>
+      <c r="E32" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="165"/>
+      <c r="G32" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="13"/>
+    <col min="11" max="11" width="17.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" style="13" customWidth="1"/>
+    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="12.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14.25">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="143"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="146"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="148"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.25">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="145"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="144"/>
+      <c r="G4" s="148"/>
+    </row>
+    <row r="5" spans="1:19" ht="24">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="145"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="148"/>
+    </row>
+    <row r="6" spans="1:19" ht="24">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="145"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="148"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25">
+      <c r="B7" s="153" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="159"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" thickBot="1">
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="185" customFormat="1">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="186" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="186" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="186" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="186"/>
+      <c r="M13" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="186" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="186" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="188" customFormat="1" ht="15">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188">
+        <v>1</v>
+      </c>
+      <c r="J14" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="188" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="189" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="190">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="Q14" s="190">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="R14" s="190">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="S14" s="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="188" customFormat="1" ht="15">
+      <c r="A15" s="59">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188">
+        <v>2</v>
+      </c>
+      <c r="J15" s="188" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="188" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="189" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" s="190">
+        <v>41922.46875</v>
+      </c>
+      <c r="Q15" s="190">
+        <v>41922.46875</v>
+      </c>
+      <c r="R15" s="190">
+        <v>41922.46875</v>
+      </c>
+      <c r="S15" s="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="188" customFormat="1" ht="24">
+      <c r="A16" s="59">
+        <f t="shared" ref="A16:A21" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="187"/>
+    </row>
+    <row r="17" spans="1:7" s="188" customFormat="1">
+      <c r="A17" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="117"/>
+    </row>
+    <row r="18" spans="1:7" s="188" customFormat="1">
+      <c r="A18" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="106"/>
+    </row>
+    <row r="19" spans="1:7" s="188" customFormat="1">
+      <c r="A19" s="59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="191" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="188" customFormat="1">
+      <c r="A20" s="59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="106"/>
+    </row>
+    <row r="21" spans="1:7" s="196" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A21" s="70">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="192" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="193"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="195"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24">
+      <c r="A24" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="150"/>
+      <c r="E24" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25">
+      <c r="A25" s="14">
+        <v>1</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="164"/>
+      <c r="E25" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A26" s="57">
+        <v>2</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A27" s="56">
+        <v>3</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1">
+      <c r="A30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="152"/>
+      <c r="E30" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="165"/>
+      <c r="G30" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13">
+        <v>1</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="180" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="180"/>
+      <c r="E31" s="180" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="180"/>
+      <c r="G31" s="179" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13">
+        <v>2</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="198"/>
+      <c r="G32" s="179" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="152"/>
+      <c r="E35" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="165"/>
+      <c r="G35" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF008000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7452,124 +9002,124 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12" thickBot="1">
+    <row r="1" spans="1:11" ht="12.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="145"/>
-    </row>
-    <row r="3" spans="1:11" ht="13">
+      <c r="G2" s="146"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="147"/>
-    </row>
-    <row r="4" spans="1:11" ht="13">
+      <c r="G3" s="148"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
-    </row>
-    <row r="5" spans="1:11" ht="13">
+      <c r="F4" s="144"/>
+      <c r="G4" s="148"/>
+    </row>
+    <row r="5" spans="1:11" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="145"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
-    </row>
-    <row r="6" spans="1:11" ht="13">
+      <c r="F5" s="144"/>
+      <c r="G5" s="148"/>
+    </row>
+    <row r="6" spans="1:11" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="145"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
-    </row>
-    <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="F6" s="144"/>
+      <c r="G6" s="148"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.25">
+      <c r="B7" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-    </row>
-    <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-    </row>
-    <row r="12" spans="1:11" ht="12" thickBot="1">
+      <c r="B9" s="159"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" thickBot="1">
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -7597,15 +9147,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="14">
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>84</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>53</v>
@@ -7619,40 +9169,40 @@
       </c>
       <c r="H14" s="77"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="12.75">
       <c r="A15" s="14">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="76"/>
       <c r="K15" s="79"/>
     </row>
-    <row r="16" spans="1:11" ht="16">
+    <row r="16" spans="1:11" ht="17.25">
       <c r="A16" s="14">
         <f t="shared" ref="A16:A21" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>54</v>
@@ -7665,16 +9215,16 @@
       <c r="H16" s="78"/>
       <c r="K16" s="79"/>
     </row>
-    <row r="17" spans="1:11" ht="13">
+    <row r="17" spans="1:11">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>53</v>
@@ -7686,30 +9236,30 @@
         <v>4</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="79"/>
     </row>
-    <row r="18" spans="1:11" ht="13">
+    <row r="18" spans="1:11">
       <c r="A18" s="82">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="84" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" s="80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="79"/>
     </row>
@@ -7753,7 +9303,7 @@
       <c r="F20" s="49"/>
       <c r="G20" s="50"/>
     </row>
-    <row r="21" spans="1:11" ht="12" thickBot="1">
+    <row r="21" spans="1:11" ht="12.75" thickBot="1">
       <c r="A21" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7765,7 +9315,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>3</v>
@@ -7777,22 +9327,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12" thickBot="1">
+    <row r="23" spans="1:11" ht="12.75" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="24">
       <c r="A24" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="149"/>
+      <c r="D24" s="150"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -7803,17 +9353,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13">
+    <row r="25" spans="1:11" ht="14.25">
       <c r="A25" s="14">
         <v>1</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="162" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="163"/>
+      <c r="C25" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="164"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -7822,82 +9372,82 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:11" ht="13" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="12.95" customHeight="1" thickBot="1">
       <c r="A26" s="56">
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="174"/>
+      <c r="D26" s="173"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="28" spans="1:11" ht="12" thickBot="1">
+    <row r="28" spans="1:11" ht="12.75" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14" thickBot="1">
+    <row r="29" spans="1:11" ht="15" thickBot="1">
       <c r="A29" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="150" t="s">
+      <c r="D29" s="152"/>
+      <c r="E29" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="164"/>
+      <c r="F29" s="165"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12" thickBot="1">
+    <row r="31" spans="1:11" ht="12.75" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14" thickBot="1">
+    <row r="32" spans="1:11" ht="15" thickBot="1">
       <c r="A32" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="150" t="s">
+      <c r="D32" s="152"/>
+      <c r="E32" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="164"/>
+      <c r="F32" s="165"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" thickBot="1">
+    <row r="33" spans="1:7" ht="15" thickBot="1">
       <c r="A33" s="16">
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="171" t="s">
+      <c r="C33" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173" t="s">
+      <c r="D33" s="171"/>
+      <c r="E33" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="174"/>
+      <c r="F33" s="173"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
@@ -7941,9 +9491,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF008000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7953,126 +9503,126 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12" thickBot="1">
+    <row r="1" spans="1:7" ht="12.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="145"/>
-    </row>
-    <row r="3" spans="1:7" ht="13">
+      <c r="G2" s="146"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="147"/>
-    </row>
-    <row r="4" spans="1:7" ht="13">
+      <c r="G3" s="148"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
-    </row>
-    <row r="5" spans="1:7" ht="13">
+      <c r="F4" s="144"/>
+      <c r="G4" s="148"/>
+    </row>
+    <row r="5" spans="1:7" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="145"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
-    </row>
-    <row r="6" spans="1:7" ht="13">
+      <c r="F5" s="144"/>
+      <c r="G5" s="148"/>
+    </row>
+    <row r="6" spans="1:7" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="145"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
-    </row>
-    <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="F6" s="144"/>
+      <c r="G6" s="148"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="B7" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="155" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="156" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-    </row>
-    <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-    </row>
-    <row r="12" spans="1:7" ht="12" thickBot="1">
+      <c r="B9" s="159"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" thickBot="1">
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -8105,10 +9655,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>53</v>
@@ -8127,10 +9677,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>84</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>53</v>
@@ -8141,16 +9691,16 @@
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="12" thickBot="1">
+    <row r="16" spans="1:7" ht="12.75" thickBot="1">
       <c r="A16" s="16">
         <f t="shared" ref="A16" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>53</v>
@@ -8163,22 +9713,22 @@
       </c>
       <c r="G16" s="28"/>
     </row>
-    <row r="18" spans="1:7" ht="12" thickBot="1">
+    <row r="18" spans="1:7" ht="12.75" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="150"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -8189,17 +9739,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="14">
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="162" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="163"/>
+      <c r="C20" s="163" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="164"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -8208,78 +9758,78 @@
       </c>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" ht="14" thickBot="1">
+    <row r="21" spans="1:7" ht="15" thickBot="1">
       <c r="A21" s="16">
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="172"/>
+      <c r="C21" s="170" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="171"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="28"/>
     </row>
-    <row r="23" spans="1:7" ht="12" thickBot="1">
+    <row r="23" spans="1:7" ht="12.75" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14" thickBot="1">
+    <row r="24" spans="1:7" ht="15" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="150" t="s">
+      <c r="D24" s="152"/>
+      <c r="E24" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="164"/>
+      <c r="F24" s="165"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12" thickBot="1">
+    <row r="26" spans="1:7" ht="12.75" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14" thickBot="1">
+    <row r="27" spans="1:7" ht="15" thickBot="1">
       <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="150" t="s">
+      <c r="D27" s="152"/>
+      <c r="E27" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="164"/>
+      <c r="F27" s="165"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14" thickBot="1">
+    <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="16">
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
@@ -8321,9 +9871,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8333,122 +9883,122 @@
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12" thickBot="1">
+    <row r="1" spans="1:14" ht="12.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13">
+    <row r="2" spans="1:14" ht="14.25">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="176"/>
-    </row>
-    <row r="3" spans="1:14" ht="13">
+      <c r="G2" s="177"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="147"/>
-    </row>
-    <row r="4" spans="1:14" ht="13">
+      <c r="F3" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="148"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
-    </row>
-    <row r="5" spans="1:14" ht="13">
+      <c r="F4" s="144"/>
+      <c r="G4" s="148"/>
+    </row>
+    <row r="5" spans="1:14" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="145"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
-    </row>
-    <row r="6" spans="1:14" ht="13">
+      <c r="F5" s="144"/>
+      <c r="G5" s="148"/>
+    </row>
+    <row r="6" spans="1:14" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="145"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
-    </row>
-    <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="F6" s="144"/>
+      <c r="G6" s="148"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25">
+      <c r="B7" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-    </row>
-    <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" thickBot="1">
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -8458,7 +10008,7 @@
       <c r="L11" s="87"/>
       <c r="M11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="12" thickBot="1">
+    <row r="12" spans="1:14" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -8503,10 +10053,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>53</v>
@@ -8532,10 +10082,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>53</v>
@@ -8559,13 +10109,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>68</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>3</v>
@@ -8586,13 +10136,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>3</v>
@@ -8601,7 +10151,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
@@ -8611,13 +10161,13 @@
       <c r="M17" s="87"/>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="12" thickBot="1">
+    <row r="18" spans="1:14" ht="12.75" thickBot="1">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>52</v>
@@ -8646,7 +10196,7 @@
       <c r="L19" s="87"/>
       <c r="M19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="12" thickBot="1">
+    <row r="20" spans="1:14" ht="12.75" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -8657,17 +10207,17 @@
       <c r="L20" s="87"/>
       <c r="M20" s="87"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" ht="24">
       <c r="A21" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="150"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -8684,17 +10234,17 @@
       <c r="L21" s="87"/>
       <c r="M21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="13">
+    <row r="22" spans="1:14" ht="14.25">
       <c r="A22" s="14">
         <v>1</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="162" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="163"/>
+      <c r="C22" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="164"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -8709,15 +10259,15 @@
       <c r="L22" s="87"/>
       <c r="M22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="13" customHeight="1">
+    <row r="23" spans="1:14" ht="12.95" customHeight="1">
       <c r="A23" s="57">
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="168"/>
+      <c r="C23" s="168" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="169"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -8730,15 +10280,15 @@
       <c r="L23" s="87"/>
       <c r="M23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="14" thickBot="1">
+    <row r="24" spans="1:14" ht="15" thickBot="1">
       <c r="A24" s="16">
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="171" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="172"/>
+      <c r="C24" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="171"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -8759,7 +10309,7 @@
       <c r="L25" s="87"/>
       <c r="M25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="12" thickBot="1">
+    <row r="26" spans="1:14" ht="12.75" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -8770,21 +10320,21 @@
       <c r="L26" s="87"/>
       <c r="M26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="14" thickBot="1">
+    <row r="27" spans="1:14" ht="15" thickBot="1">
       <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="150" t="s">
+      <c r="D27" s="152"/>
+      <c r="E27" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="164"/>
+      <c r="F27" s="165"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -8803,7 +10353,7 @@
       <c r="L28" s="87"/>
       <c r="M28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="12" thickBot="1">
+    <row r="29" spans="1:14" ht="12.75" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -8814,21 +10364,21 @@
       <c r="L29" s="87"/>
       <c r="M29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="14" thickBot="1">
+    <row r="30" spans="1:14" ht="15" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="150" t="s">
+      <c r="D30" s="152"/>
+      <c r="E30" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="164"/>
+      <c r="F30" s="165"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -8839,21 +10389,21 @@
       <c r="L30" s="87"/>
       <c r="M30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="13">
+    <row r="31" spans="1:14" ht="14.25">
       <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="162" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="163"/>
-      <c r="E31" s="167" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="168"/>
+      <c r="C31" s="163" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="164"/>
+      <c r="E31" s="168" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="169"/>
       <c r="G31" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="87"/>
       <c r="I31" s="87"/>
@@ -8862,19 +10412,19 @@
       <c r="L31" s="87"/>
       <c r="M31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="14" thickBot="1">
+    <row r="32" spans="1:14" ht="15" thickBot="1">
       <c r="A32" s="56">
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="169" t="s">
+      <c r="C32" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="170"/>
-      <c r="E32" s="173" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="173"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>

--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="187">
   <si>
     <t>No</t>
   </si>
@@ -423,12 +423,6 @@
   </si>
   <si>
     <t>version_id, rank_number, rank_type</t>
-  </si>
-  <si>
-    <t>create_dt</t>
-  </si>
-  <si>
-    <t>update_dt</t>
   </si>
   <si>
     <t>Current date time as default value.</t>
@@ -477,9 +471,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>last_login_dt</t>
-  </si>
-  <si>
     <t>TINYINT(1)</t>
   </si>
   <si>
@@ -495,22 +486,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>..</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Tran Anh Duy</t>
   </si>
   <si>
@@ -577,9 +552,6 @@
     <t>boss</t>
   </si>
   <si>
-    <t>brithdate</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -668,6 +640,60 @@
   </si>
   <si>
     <t>fk_comments_users1_idx</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>vu</t>
+  </si>
+  <si>
+    <t>truong</t>
+  </si>
+  <si>
+    <t>duyt</t>
+  </si>
+  <si>
+    <t>duy</t>
+  </si>
+  <si>
+    <t>tran</t>
+  </si>
+  <si>
+    <t>vu.jpg</t>
+  </si>
+  <si>
+    <t>duy.png</t>
+  </si>
+  <si>
+    <t>111D Lý Chính Thắng, Q.3</t>
+  </si>
+  <si>
+    <t>Tây Thạnh, Tân Phú</t>
+  </si>
+  <si>
+    <t>vu@mulodo.com</t>
+  </si>
+  <si>
+    <t>duy@mulodo.com</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>Research Spring</t>
+  </si>
+  <si>
+    <t>Research Hibernate</t>
+  </si>
+  <si>
+    <t>Spring Framework is….</t>
+  </si>
+  <si>
+    <t>Hibernate Framework is….</t>
   </si>
 </sst>
 </file>
@@ -678,7 +704,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +879,27 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -880,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1755,6 +1802,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3084,7 +3251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3448,14 +3615,56 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3467,26 +3676,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3494,12 +3703,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3536,20 +3739,35 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3575,67 +3793,160 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4687,7 +4998,7 @@
   <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="AN27" sqref="AN27:AS27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -5359,29 +5670,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="138"/>
-      <c r="AH13" s="138"/>
-      <c r="AI13" s="138"/>
-      <c r="AJ13" s="138"/>
-      <c r="AK13" s="138"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="152"/>
+      <c r="AE13" s="152"/>
+      <c r="AF13" s="152"/>
+      <c r="AG13" s="152"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="152"/>
+      <c r="AJ13" s="152"/>
+      <c r="AK13" s="152"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5413,29 +5724,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="138"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="138"/>
-      <c r="AG14" s="138"/>
-      <c r="AH14" s="138"/>
-      <c r="AI14" s="138"/>
-      <c r="AJ14" s="138"/>
-      <c r="AK14" s="138"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5463,43 +5774,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="139" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="139"/>
-      <c r="AH15" s="139"/>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="139"/>
-      <c r="AK15" s="139"/>
-      <c r="AL15" s="139"/>
-      <c r="AM15" s="139"/>
-      <c r="AN15" s="139"/>
-      <c r="AO15" s="139"/>
-      <c r="AP15" s="139"/>
-      <c r="AQ15" s="139"/>
-      <c r="AR15" s="139"/>
-      <c r="AS15" s="139"/>
+      <c r="K15" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="153"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="153"/>
+      <c r="AB15" s="153"/>
+      <c r="AC15" s="153"/>
+      <c r="AD15" s="153"/>
+      <c r="AE15" s="153"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="153"/>
+      <c r="AJ15" s="153"/>
+      <c r="AK15" s="153"/>
+      <c r="AL15" s="153"/>
+      <c r="AM15" s="153"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="153"/>
+      <c r="AP15" s="153"/>
+      <c r="AQ15" s="153"/>
+      <c r="AR15" s="153"/>
+      <c r="AS15" s="153"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5519,41 +5830,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="139"/>
-      <c r="AI16" s="139"/>
-      <c r="AJ16" s="139"/>
-      <c r="AK16" s="139"/>
-      <c r="AL16" s="139"/>
-      <c r="AM16" s="139"/>
-      <c r="AN16" s="139"/>
-      <c r="AO16" s="139"/>
-      <c r="AP16" s="139"/>
-      <c r="AQ16" s="139"/>
-      <c r="AR16" s="139"/>
-      <c r="AS16" s="139"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="153"/>
+      <c r="Y16" s="153"/>
+      <c r="Z16" s="153"/>
+      <c r="AA16" s="153"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="153"/>
+      <c r="AD16" s="153"/>
+      <c r="AE16" s="153"/>
+      <c r="AF16" s="153"/>
+      <c r="AG16" s="153"/>
+      <c r="AH16" s="153"/>
+      <c r="AI16" s="153"/>
+      <c r="AJ16" s="153"/>
+      <c r="AK16" s="153"/>
+      <c r="AL16" s="153"/>
+      <c r="AM16" s="153"/>
+      <c r="AN16" s="153"/>
+      <c r="AO16" s="153"/>
+      <c r="AP16" s="153"/>
+      <c r="AQ16" s="153"/>
+      <c r="AR16" s="153"/>
+      <c r="AS16" s="153"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6142,14 +6453,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="140">
-        <v>41922</v>
-      </c>
-      <c r="AO27" s="140"/>
-      <c r="AP27" s="140"/>
-      <c r="AQ27" s="140"/>
-      <c r="AR27" s="140"/>
-      <c r="AS27" s="140"/>
+      <c r="AN27" s="154">
+        <v>41651</v>
+      </c>
+      <c r="AO27" s="154"/>
+      <c r="AP27" s="154"/>
+      <c r="AQ27" s="154"/>
+      <c r="AR27" s="154"/>
+      <c r="AS27" s="154"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6652,11 +6963,11 @@
         <v>41651</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" s="96"/>
     </row>
@@ -6908,11 +7219,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" thickBot="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
     </row>
     <row r="2" spans="1:3" ht="12.75" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -6930,10 +7241,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -6942,10 +7253,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="137" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -6954,10 +7265,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>131</v>
+        <v>121</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7175,8 +7486,8 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="L6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -7187,14 +7498,18 @@
     <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="13"/>
-    <col min="11" max="11" width="17.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="13"/>
+    <col min="10" max="10" width="10.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="30" style="13" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
-    <col min="14" max="15" width="19.28515625" style="13" customWidth="1"/>
-    <col min="16" max="17" width="17" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="13"/>
+    <col min="14" max="14" width="8.28515625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="17" style="197" customWidth="1"/>
+    <col min="17" max="17" width="30.140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="197" customWidth="1"/>
+    <col min="19" max="19" width="17" style="13" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" thickBot="1">
@@ -7206,110 +7521,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="143"/>
+      <c r="C2" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="182"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="146"/>
+      <c r="F2" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:19" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="148"/>
+      <c r="F3" s="179" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="180"/>
     </row>
     <row r="4" spans="1:19" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="145"/>
+      <c r="C4" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="183"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="148"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="180"/>
     </row>
     <row r="5" spans="1:19" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="145"/>
+      <c r="C5" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="183"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="148"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="180"/>
     </row>
     <row r="6" spans="1:19" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="144" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="145"/>
+      <c r="C6" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="183"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="148"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="180"/>
     </row>
     <row r="7" spans="1:19" ht="14.25">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="12" spans="1:19" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7334,36 +7649,38 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
+      <c r="I13" s="201" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="202" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="202" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="202" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="202" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="203" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="202" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" s="203" t="s">
+        <v>139</v>
+      </c>
+      <c r="R13" s="202" t="s">
+        <v>140</v>
+      </c>
+      <c r="S13" s="204" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15">
@@ -7371,10 +7688,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -7387,88 +7704,94 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="13">
+      <c r="I14" s="205">
         <v>1</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="Q14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="R14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
+      <c r="J14" s="206" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="206" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="207" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="208" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="O14" s="209">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="15">
+      <c r="P14" s="210">
+        <v>31321</v>
+      </c>
+      <c r="Q14" s="211" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14" s="212" t="s">
+        <v>180</v>
+      </c>
+      <c r="S14" s="213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H15" s="87"/>
-      <c r="I15" s="13">
+      <c r="I15" s="214">
         <v>2</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="135" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="Q15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="R15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="S15" s="13">
+      <c r="J15" s="215" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="215" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="N15" s="215" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="218">
         <v>1</v>
+      </c>
+      <c r="P15" s="219">
+        <v>32874</v>
+      </c>
+      <c r="Q15" s="220" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="221" t="s">
+        <v>181</v>
+      </c>
+      <c r="S15" s="222">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7477,13 +7800,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -7498,13 +7821,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
@@ -7518,13 +7841,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
@@ -7538,13 +7861,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
@@ -7558,22 +7881,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D20" s="129" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="178" t="s">
+      <c r="F20" s="137" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="106" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7582,13 +7905,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>3</v>
@@ -7602,20 +7925,20 @@
         <v>9</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="67"/>
       <c r="G22" s="106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7624,13 +7947,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E23" s="66" t="s">
         <v>3</v>
@@ -7643,13 +7966,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="130" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C24" s="131" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D24" s="131" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E24" s="132" t="s">
         <v>3</v>
@@ -7658,7 +7981,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="133" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" thickBot="1">
@@ -7673,10 +7996,10 @@
       <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="150"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="34" t="s">
         <v>33</v>
       </c>
@@ -7694,10 +8017,10 @@
       <c r="B28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="164"/>
+      <c r="C28" s="175" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="176"/>
       <c r="E28" s="46" t="s">
         <v>3</v>
       </c>
@@ -7711,8 +8034,8 @@
         <v>2</v>
       </c>
       <c r="B29" s="51"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="169"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="162"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
       <c r="G29" s="53"/>
@@ -7722,8 +8045,8 @@
         <v>3</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="160"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="55"/>
@@ -7740,14 +8063,14 @@
       <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="151" t="s">
+      <c r="C33" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="152"/>
-      <c r="E33" s="151" t="s">
+      <c r="D33" s="157"/>
+      <c r="E33" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="165"/>
+      <c r="F33" s="158"/>
       <c r="G33" s="38" t="s">
         <v>38</v>
       </c>
@@ -7764,44 +8087,48 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="151" t="s">
+      <c r="C36" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="152"/>
-      <c r="E36" s="151" t="s">
+      <c r="D36" s="157"/>
+      <c r="E36" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="165"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="R14" r:id="rId1"/>
+    <hyperlink ref="R15" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -7821,8 +8148,8 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="H8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -7834,11 +8161,12 @@
     <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.85546875" style="13"/>
-    <col min="11" max="11" width="17.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="13" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
     <col min="14" max="15" width="19.28515625" style="13" customWidth="1"/>
-    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="16" max="16" width="17" style="197" customWidth="1"/>
+    <col min="17" max="17" width="17" style="13" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" style="13" customWidth="1"/>
     <col min="19" max="16384" width="8.85546875" style="13"/>
   </cols>
@@ -7852,110 +8180,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="143"/>
+      <c r="C2" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="182"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="146"/>
+      <c r="F2" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:19" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="148"/>
+      <c r="F3" s="179" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="180"/>
     </row>
     <row r="4" spans="1:19" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="145"/>
+      <c r="C4" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="183"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="148"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="180"/>
     </row>
     <row r="5" spans="1:19" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="145"/>
+      <c r="C5" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="183"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="148"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="180"/>
     </row>
     <row r="6" spans="1:19" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="144" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="145"/>
+      <c r="C6" s="181" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="183"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="148"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="180"/>
     </row>
     <row r="7" spans="1:19" ht="14.25">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="12" spans="1:19" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7980,47 +8308,40 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
+      <c r="I13" s="201" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="224" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="224" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="224" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="224" t="s">
+        <v>182</v>
+      </c>
+      <c r="N13" s="224" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="225" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="195"/>
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -8033,50 +8354,43 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="13">
+      <c r="I14" s="205">
         <v>1</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="135" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="Q14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="R14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
+      <c r="J14" s="206" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="206" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="226">
+        <v>41306</v>
+      </c>
+      <c r="M14" s="227">
+        <v>41770</v>
+      </c>
+      <c r="N14" s="206">
+        <v>0</v>
+      </c>
+      <c r="O14" s="228">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="15">
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -8084,36 +8398,29 @@
       <c r="F15" s="67"/>
       <c r="G15" s="107"/>
       <c r="H15" s="87"/>
-      <c r="I15" s="13">
+      <c r="I15" s="214">
         <v>2</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="135" t="s">
-        <v>120</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="Q15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="R15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
-      </c>
+      <c r="J15" s="216" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="229">
+        <v>41963</v>
+      </c>
+      <c r="M15" s="230">
+        <v>42063</v>
+      </c>
+      <c r="N15" s="216">
+        <v>0</v>
+      </c>
+      <c r="O15" s="231">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="59">
@@ -8121,13 +8428,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -8145,10 +8452,10 @@
         <v>41</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E17" s="66"/>
       <c r="F17" s="67"/>
@@ -8163,10 +8470,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
@@ -8178,20 +8485,20 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" s="66"/>
-      <c r="F19" s="178" t="s">
+      <c r="F19" s="137" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="106" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" thickBot="1">
@@ -8199,10 +8506,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="130" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D20" s="131" t="s">
         <v>53</v>
@@ -8223,10 +8530,10 @@
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="149" t="s">
+      <c r="C23" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="150"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="34" t="s">
         <v>33</v>
       </c>
@@ -8244,10 +8551,10 @@
       <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="164"/>
+      <c r="C24" s="175" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="176"/>
       <c r="E24" s="46" t="s">
         <v>3</v>
       </c>
@@ -8261,8 +8568,8 @@
         <v>2</v>
       </c>
       <c r="B25" s="51"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="162"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="53"/>
@@ -8272,8 +8579,8 @@
         <v>3</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="160"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
       <c r="G26" s="55"/>
@@ -8290,35 +8597,35 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="151" t="s">
+      <c r="C29" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="151" t="s">
+      <c r="D29" s="157"/>
+      <c r="E29" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="165"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="181">
+      <c r="A30" s="139">
         <v>1</v>
       </c>
-      <c r="B30" s="182" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="183" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="183"/>
-      <c r="G30" s="184" t="s">
-        <v>113</v>
+      <c r="B30" s="140" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="184" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="184"/>
+      <c r="G30" s="141" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" thickBot="1">
@@ -8333,20 +8640,30 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="151" t="s">
+      <c r="D32" s="157"/>
+      <c r="E32" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="165"/>
+      <c r="F32" s="158"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8359,16 +8676,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -8384,10 +8691,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -8398,132 +8705,135 @@
     <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="13"/>
-    <col min="11" max="11" width="17.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="13"/>
+    <col min="10" max="10" width="19.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="30" style="13" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
-    <col min="14" max="15" width="19.28515625" style="13" customWidth="1"/>
-    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="196" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="197" customWidth="1"/>
+    <col min="16" max="16" width="17" style="197" customWidth="1"/>
+    <col min="17" max="17" width="17" style="13" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" style="13" customWidth="1"/>
     <col min="19" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" thickBot="1">
+    <row r="1" spans="1:26" ht="12.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25">
+    <row r="2" spans="1:26" ht="14.25">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="143"/>
+      <c r="C2" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="182"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="146"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25">
+      <c r="F2" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="178"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="148"/>
-    </row>
-    <row r="4" spans="1:19" ht="14.25">
+      <c r="F3" s="179" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="180"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="145"/>
+      <c r="C4" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="183"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="148"/>
-    </row>
-    <row r="5" spans="1:19" ht="24">
+      <c r="F4" s="181"/>
+      <c r="G4" s="180"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="145"/>
+      <c r="C5" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="183"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="148"/>
-    </row>
-    <row r="6" spans="1:19" ht="24">
+      <c r="F5" s="181"/>
+      <c r="G5" s="180"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="144" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="145"/>
+      <c r="C6" s="181" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="183"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="148"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.25">
-      <c r="B7" s="153" t="s">
+      <c r="F6" s="181"/>
+      <c r="G6" s="180"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25">
+      <c r="B7" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
-    </row>
-    <row r="10" spans="1:19" ht="12.75" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
-    </row>
-    <row r="12" spans="1:19" ht="12.75" thickBot="1">
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="171"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" thickBot="1">
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="185" customFormat="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="142" customFormat="1" ht="12.75" thickTop="1">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -8545,47 +8855,51 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="186" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="186" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="186" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="186" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="186" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" s="186" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="186" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="186" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="186" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="188" customFormat="1" ht="15">
+      <c r="H13" s="223"/>
+      <c r="I13" s="234" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="235" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="235" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="235" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="235" t="s">
+        <v>182</v>
+      </c>
+      <c r="N13" s="235" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="236" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="237" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="233"/>
+      <c r="R13" s="233"/>
+      <c r="S13" s="233"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="143"/>
+    </row>
+    <row r="14" spans="1:26" s="143" customFormat="1" ht="15">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -8597,129 +8911,128 @@
       <c r="G14" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188">
+      <c r="H14" s="232"/>
+      <c r="I14" s="238">
         <v>1</v>
       </c>
-      <c r="J14" s="188" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="188" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="188" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="189" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="P14" s="190">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="Q14" s="190">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="R14" s="190">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="188">
+      <c r="J14" s="207" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="226">
+        <v>40901</v>
+      </c>
+      <c r="M14" s="226">
+        <v>41455</v>
+      </c>
+      <c r="N14" s="239">
+        <v>0</v>
+      </c>
+      <c r="O14" s="209">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="188" customFormat="1" ht="15">
+      <c r="P14" s="240">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
+    </row>
+    <row r="15" spans="1:26" s="143" customFormat="1" ht="15.75" thickBot="1">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="188">
+      <c r="H15" s="232"/>
+      <c r="I15" s="241">
         <v>2</v>
       </c>
-      <c r="J15" s="188" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="188" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="188" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="189" t="s">
-        <v>120</v>
-      </c>
-      <c r="O15" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="P15" s="190">
-        <v>41922.46875</v>
-      </c>
-      <c r="Q15" s="190">
-        <v>41922.46875</v>
-      </c>
-      <c r="R15" s="190">
-        <v>41922.46875</v>
-      </c>
-      <c r="S15" s="188">
+      <c r="J15" s="242" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" s="242" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="246">
+        <v>40493</v>
+      </c>
+      <c r="M15" s="246">
+        <v>41255</v>
+      </c>
+      <c r="N15" s="243">
+        <v>0</v>
+      </c>
+      <c r="O15" s="244">
+        <v>2</v>
+      </c>
+      <c r="P15" s="245">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="188" customFormat="1" ht="24">
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144"/>
+    </row>
+    <row r="16" spans="1:26" s="143" customFormat="1" ht="12.75" thickTop="1">
       <c r="A16" s="59">
         <f t="shared" ref="A16:A21" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="117"/>
-      <c r="H16" s="187"/>
-    </row>
-    <row r="17" spans="1:7" s="188" customFormat="1">
+      <c r="H16" s="232"/>
+      <c r="N16" s="200"/>
+      <c r="O16" s="199"/>
+      <c r="P16" s="199"/>
+    </row>
+    <row r="17" spans="1:26" s="143" customFormat="1">
       <c r="A17" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E17" s="66"/>
       <c r="F17" s="67"/>
       <c r="G17" s="117"/>
-    </row>
-    <row r="18" spans="1:7" s="188" customFormat="1">
+      <c r="H17" s="223"/>
+      <c r="N17" s="200"/>
+      <c r="O17" s="199"/>
+      <c r="P17" s="199"/>
+    </row>
+    <row r="18" spans="1:26" s="143" customFormat="1">
       <c r="A18" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8727,48 +9040,56 @@
       <c r="B18" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="65" t="s">
-        <v>163</v>
+      <c r="C18" s="198" t="s">
+        <v>182</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
       <c r="G18" s="106"/>
-    </row>
-    <row r="19" spans="1:7" s="188" customFormat="1">
+      <c r="H18" s="223"/>
+      <c r="N18" s="200"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="199"/>
+    </row>
+    <row r="19" spans="1:26" s="143" customFormat="1">
       <c r="A19" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>164</v>
+        <v>153</v>
+      </c>
+      <c r="C19" s="145" t="s">
+        <v>156</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" s="66"/>
-      <c r="F19" s="178" t="s">
+      <c r="F19" s="137" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="106" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="188" customFormat="1">
+        <v>165</v>
+      </c>
+      <c r="H19" s="223"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="199"/>
+      <c r="P19" s="199"/>
+    </row>
+    <row r="20" spans="1:26" s="143" customFormat="1">
       <c r="A20" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>53</v>
@@ -8776,41 +9097,64 @@
       <c r="E20" s="66"/>
       <c r="F20" s="67"/>
       <c r="G20" s="106"/>
-    </row>
-    <row r="21" spans="1:7" s="196" customFormat="1" ht="12.75" thickBot="1">
+      <c r="H20" s="223"/>
+      <c r="N20" s="200"/>
+      <c r="O20" s="199"/>
+      <c r="P20" s="199"/>
+    </row>
+    <row r="21" spans="1:26" s="150" customFormat="1" ht="12.75" thickBot="1">
       <c r="A21" s="70">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="192" t="s">
-        <v>162</v>
+      <c r="B21" s="146" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D21" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="195"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" thickBot="1">
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="200"/>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="143"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="143"/>
+      <c r="X21" s="143"/>
+      <c r="Y21" s="143"/>
+      <c r="Z21" s="143"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24">
+    <row r="24" spans="1:26" ht="24">
       <c r="A24" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="149" t="s">
+      <c r="C24" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="150"/>
+      <c r="D24" s="164"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -8821,17 +9165,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25">
+    <row r="25" spans="1:26" ht="14.25">
       <c r="A25" s="14">
         <v>1</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="164"/>
+      <c r="C25" s="175" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="176"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -8840,95 +9184,95 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+    <row r="26" spans="1:26" ht="12.95" customHeight="1">
       <c r="A26" s="57">
         <v>2</v>
       </c>
       <c r="B26" s="51"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="162"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="53"/>
     </row>
-    <row r="27" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
+    <row r="27" spans="1:26" ht="12.95" customHeight="1" thickBot="1">
       <c r="A27" s="56">
         <v>3</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="160"/>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75" thickBot="1">
+    <row r="29" spans="1:26" ht="12.75" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="151" t="s">
+      <c r="C30" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="152"/>
-      <c r="E30" s="151" t="s">
+      <c r="D30" s="157"/>
+      <c r="E30" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="165"/>
+      <c r="F30" s="158"/>
       <c r="G30" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:26">
       <c r="A31" s="13">
         <v>1</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="180" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="180"/>
-      <c r="G31" s="179" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>167</v>
+      </c>
+      <c r="C31" s="185" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="185"/>
+      <c r="E31" s="185" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="185"/>
+      <c r="G31" s="138" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="13">
         <v>2</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="198"/>
-      <c r="G32" s="179" t="s">
-        <v>113</v>
+        <v>168</v>
+      </c>
+      <c r="C32" s="186" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="186"/>
+      <c r="G32" s="138" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" thickBot="1">
       <c r="A34" s="1" t="s">
@@ -8942,20 +9286,32 @@
       <c r="B35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="151" t="s">
+      <c r="C35" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="152"/>
-      <c r="E35" s="151" t="s">
+      <c r="D35" s="157"/>
+      <c r="E35" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="165"/>
+      <c r="F35" s="158"/>
       <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8968,18 +9324,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -9021,103 +9365,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="143"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="146"/>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="148"/>
+      <c r="G3" s="180"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="145"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="148"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="180"/>
     </row>
     <row r="5" spans="1:11" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="183"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="148"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="180"/>
     </row>
     <row r="6" spans="1:11" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="145"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="148"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="180"/>
     </row>
     <row r="7" spans="1:11" ht="14.25">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9339,10 +9683,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="149" t="s">
+      <c r="C24" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="150"/>
+      <c r="D24" s="164"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9360,10 +9704,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="163" t="s">
+      <c r="C25" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="164"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9377,10 +9721,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="172" t="s">
+      <c r="C26" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="173"/>
+      <c r="D26" s="190"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -9399,14 +9743,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="151" t="s">
+      <c r="C29" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="151" t="s">
+      <c r="D29" s="157"/>
+      <c r="E29" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="165"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -9423,14 +9767,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="151" t="s">
+      <c r="D32" s="157"/>
+      <c r="E32" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="165"/>
+      <c r="F32" s="158"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -9440,29 +9784,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="170" t="s">
+      <c r="C33" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172" t="s">
+      <c r="D33" s="188"/>
+      <c r="E33" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="173"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -9475,6 +9810,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9522,105 +9866,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="143"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="146"/>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="148"/>
+      <c r="G3" s="180"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="145"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="148"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="180"/>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="181" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="183"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="148"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="180"/>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="145"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="148"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="180"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9725,10 +10069,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="150"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -9746,10 +10090,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="164"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -9763,10 +10107,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="170" t="s">
+      <c r="C21" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="171"/>
+      <c r="D21" s="188"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -9785,14 +10129,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C24" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="152"/>
-      <c r="E24" s="151" t="s">
+      <c r="D24" s="157"/>
+      <c r="E24" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="165"/>
+      <c r="F24" s="158"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -9809,14 +10153,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="151" t="s">
+      <c r="C27" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="152"/>
-      <c r="E27" s="151" t="s">
+      <c r="D27" s="157"/>
+      <c r="E27" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="165"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -9826,23 +10170,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="173"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="190"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -9855,6 +10190,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9902,103 +10246,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="143"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="176" t="s">
+      <c r="F2" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="177"/>
+      <c r="G2" s="194"/>
     </row>
     <row r="3" spans="1:14" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="148"/>
+      <c r="F3" s="179" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="180"/>
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="145"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="148"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="180"/>
     </row>
     <row r="5" spans="1:14" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="183"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="148"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="180"/>
     </row>
     <row r="6" spans="1:14" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="145"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="148"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="180"/>
     </row>
     <row r="7" spans="1:14" ht="14.25">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -10214,10 +10558,10 @@
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="150"/>
+      <c r="D21" s="164"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -10241,10 +10585,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="163" t="s">
+      <c r="C22" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="164"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -10264,10 +10608,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="168" t="s">
+      <c r="C23" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="169"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -10285,10 +10629,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="170" t="s">
+      <c r="C24" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="171"/>
+      <c r="D24" s="188"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -10327,14 +10671,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="151" t="s">
+      <c r="C27" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="152"/>
-      <c r="E27" s="151" t="s">
+      <c r="D27" s="157"/>
+      <c r="E27" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="165"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -10371,14 +10715,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="151" t="s">
+      <c r="C30" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="152"/>
-      <c r="E30" s="151" t="s">
+      <c r="D30" s="157"/>
+      <c r="E30" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="165"/>
+      <c r="F30" s="158"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -10394,14 +10738,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="163" t="s">
+      <c r="C31" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="164"/>
-      <c r="E31" s="168" t="s">
+      <c r="D31" s="176"/>
+      <c r="E31" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="169"/>
+      <c r="F31" s="162"/>
       <c r="G31" s="53" t="s">
         <v>76</v>
       </c>
@@ -10417,14 +10761,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="172" t="s">
+      <c r="D32" s="192"/>
+      <c r="E32" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="173"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>
@@ -10477,6 +10821,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C31:D31"/>
@@ -10493,14 +10845,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="818" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="180">
   <si>
     <t>No</t>
   </si>
@@ -423,9 +423,6 @@
   </si>
   <si>
     <t>version_id, rank_number, rank_type</t>
-  </si>
-  <si>
-    <t>Current date time as default value.</t>
   </si>
   <si>
     <t>Init version</t>
@@ -540,9 +537,6 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -552,9 +546,6 @@
     <t>boss</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -567,9 +558,6 @@
     <t>DATETIME</t>
   </si>
   <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
     <t>0:Female; 1:Male</t>
   </si>
   <si>
@@ -642,9 +630,6 @@
     <t>fk_comments_users1_idx</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>birthdate</t>
   </si>
   <si>
@@ -667,12 +652,6 @@
   </si>
   <si>
     <t>duy.png</t>
-  </si>
-  <si>
-    <t>111D Lý Chính Thắng, Q.3</t>
-  </si>
-  <si>
-    <t>Tây Thạnh, Tân Phú</t>
   </si>
   <si>
     <t>vu@mulodo.com</t>
@@ -3251,7 +3230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3666,6 +3645,156 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3792,162 +3921,6 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="443">
@@ -5670,29 +5643,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="152"/>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="152"/>
-      <c r="AJ13" s="152"/>
-      <c r="AK13" s="152"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="202"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="202"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="202"/>
+      <c r="V13" s="202"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
+      <c r="AD13" s="202"/>
+      <c r="AE13" s="202"/>
+      <c r="AF13" s="202"/>
+      <c r="AG13" s="202"/>
+      <c r="AH13" s="202"/>
+      <c r="AI13" s="202"/>
+      <c r="AJ13" s="202"/>
+      <c r="AK13" s="202"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5724,29 +5697,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="202"/>
+      <c r="R14" s="202"/>
+      <c r="S14" s="202"/>
+      <c r="T14" s="202"/>
+      <c r="U14" s="202"/>
+      <c r="V14" s="202"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="202"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
+      <c r="AD14" s="202"/>
+      <c r="AE14" s="202"/>
+      <c r="AF14" s="202"/>
+      <c r="AG14" s="202"/>
+      <c r="AH14" s="202"/>
+      <c r="AI14" s="202"/>
+      <c r="AJ14" s="202"/>
+      <c r="AK14" s="202"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5774,43 +5747,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="153" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="153"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="153"/>
-      <c r="AK15" s="153"/>
-      <c r="AL15" s="153"/>
-      <c r="AM15" s="153"/>
-      <c r="AN15" s="153"/>
-      <c r="AO15" s="153"/>
-      <c r="AP15" s="153"/>
-      <c r="AQ15" s="153"/>
-      <c r="AR15" s="153"/>
-      <c r="AS15" s="153"/>
+      <c r="K15" s="203" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="203"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="203"/>
+      <c r="AE15" s="203"/>
+      <c r="AF15" s="203"/>
+      <c r="AG15" s="203"/>
+      <c r="AH15" s="203"/>
+      <c r="AI15" s="203"/>
+      <c r="AJ15" s="203"/>
+      <c r="AK15" s="203"/>
+      <c r="AL15" s="203"/>
+      <c r="AM15" s="203"/>
+      <c r="AN15" s="203"/>
+      <c r="AO15" s="203"/>
+      <c r="AP15" s="203"/>
+      <c r="AQ15" s="203"/>
+      <c r="AR15" s="203"/>
+      <c r="AS15" s="203"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5830,41 +5803,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="153"/>
-      <c r="AF16" s="153"/>
-      <c r="AG16" s="153"/>
-      <c r="AH16" s="153"/>
-      <c r="AI16" s="153"/>
-      <c r="AJ16" s="153"/>
-      <c r="AK16" s="153"/>
-      <c r="AL16" s="153"/>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="153"/>
-      <c r="AO16" s="153"/>
-      <c r="AP16" s="153"/>
-      <c r="AQ16" s="153"/>
-      <c r="AR16" s="153"/>
-      <c r="AS16" s="153"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
+      <c r="O16" s="203"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="203"/>
+      <c r="T16" s="203"/>
+      <c r="U16" s="203"/>
+      <c r="V16" s="203"/>
+      <c r="W16" s="203"/>
+      <c r="X16" s="203"/>
+      <c r="Y16" s="203"/>
+      <c r="Z16" s="203"/>
+      <c r="AA16" s="203"/>
+      <c r="AB16" s="203"/>
+      <c r="AC16" s="203"/>
+      <c r="AD16" s="203"/>
+      <c r="AE16" s="203"/>
+      <c r="AF16" s="203"/>
+      <c r="AG16" s="203"/>
+      <c r="AH16" s="203"/>
+      <c r="AI16" s="203"/>
+      <c r="AJ16" s="203"/>
+      <c r="AK16" s="203"/>
+      <c r="AL16" s="203"/>
+      <c r="AM16" s="203"/>
+      <c r="AN16" s="203"/>
+      <c r="AO16" s="203"/>
+      <c r="AP16" s="203"/>
+      <c r="AQ16" s="203"/>
+      <c r="AR16" s="203"/>
+      <c r="AS16" s="203"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6453,14 +6426,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="154">
+      <c r="AN27" s="204">
         <v>41651</v>
       </c>
-      <c r="AO27" s="154"/>
-      <c r="AP27" s="154"/>
-      <c r="AQ27" s="154"/>
-      <c r="AR27" s="154"/>
-      <c r="AS27" s="154"/>
+      <c r="AO27" s="204"/>
+      <c r="AP27" s="204"/>
+      <c r="AQ27" s="204"/>
+      <c r="AR27" s="204"/>
+      <c r="AS27" s="204"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6963,11 +6936,11 @@
         <v>41651</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="96"/>
     </row>
@@ -7219,11 +7192,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" thickBot="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
     </row>
     <row r="2" spans="1:3" ht="12.75" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -7241,10 +7214,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -7253,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -7265,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7484,10 +7457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="L6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -7505,129 +7478,128 @@
     <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="13" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="17" style="197" customWidth="1"/>
-    <col min="17" max="17" width="30.140625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="197" customWidth="1"/>
-    <col min="19" max="19" width="17" style="13" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="13"/>
+    <col min="16" max="16" width="17" style="154" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="154" customWidth="1"/>
+    <col min="18" max="18" width="17" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" thickBot="1">
+    <row r="1" spans="1:18" ht="12.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25">
+    <row r="2" spans="1:18" ht="14.25">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="182"/>
+      <c r="C2" s="227" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="232"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="177" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="178"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25">
+      <c r="F2" s="227" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="228"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="183"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="179" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="180"/>
-    </row>
-    <row r="4" spans="1:19" ht="14.25">
+      <c r="F3" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="230"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="183"/>
+      <c r="C4" s="231" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="233"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="180"/>
-    </row>
-    <row r="5" spans="1:19" ht="24">
+      <c r="F4" s="231"/>
+      <c r="G4" s="230"/>
+    </row>
+    <row r="5" spans="1:18" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="181" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="183"/>
+      <c r="C5" s="231" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="233"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="180"/>
-    </row>
-    <row r="6" spans="1:19" ht="24">
+      <c r="F5" s="231"/>
+      <c r="G5" s="230"/>
+    </row>
+    <row r="6" spans="1:18" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="183"/>
+      <c r="C6" s="231" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="233"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="180"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.25">
-      <c r="B7" s="165" t="s">
+      <c r="F6" s="231"/>
+      <c r="G6" s="230"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.25">
+      <c r="B7" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="171"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
-    </row>
-    <row r="10" spans="1:19" ht="12.75" thickBot="1">
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
-    </row>
-    <row r="12" spans="1:19" ht="12.75" thickBot="1">
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="221"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.75" thickBot="1">
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="224"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -7649,49 +7621,46 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="201" t="s">
+      <c r="I13" s="158" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="159" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="202" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="202" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="202" t="s">
+      <c r="L13" s="159" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="202" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" s="202" t="s">
+      <c r="N13" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="O13" s="203" t="s">
-        <v>131</v>
-      </c>
-      <c r="P13" s="202" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="203" t="s">
-        <v>139</v>
-      </c>
-      <c r="R13" s="202" t="s">
-        <v>140</v>
-      </c>
-      <c r="S13" s="204" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15">
+      <c r="P13" s="159" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q13" s="159" t="s">
+        <v>137</v>
+      </c>
+      <c r="R13" s="161" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -7704,109 +7673,103 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="205">
+      <c r="I14" s="162">
         <v>1</v>
       </c>
-      <c r="J14" s="206" t="s">
+      <c r="J14" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="207" t="s">
+      <c r="L14" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" s="165" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="M14" s="208" t="s">
-        <v>172</v>
-      </c>
-      <c r="N14" s="207" t="s">
-        <v>176</v>
-      </c>
-      <c r="O14" s="209">
+      <c r="O14" s="166">
         <v>1</v>
       </c>
-      <c r="P14" s="210">
+      <c r="P14" s="167">
         <v>31321</v>
       </c>
-      <c r="Q14" s="211" t="s">
-        <v>178</v>
-      </c>
-      <c r="R14" s="212" t="s">
-        <v>180</v>
-      </c>
-      <c r="S14" s="213">
+      <c r="Q14" s="168" t="s">
+        <v>173</v>
+      </c>
+      <c r="R14" s="169">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>104</v>
-      </c>
       <c r="D15" s="65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="87"/>
-      <c r="I15" s="214">
+      <c r="I15" s="170">
         <v>2</v>
       </c>
-      <c r="J15" s="215" t="s">
-        <v>173</v>
-      </c>
-      <c r="K15" s="216" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="215" t="s">
+      <c r="J15" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="172" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="171" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="173" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="O15" s="174">
+        <v>1</v>
+      </c>
+      <c r="P15" s="175">
+        <v>32874</v>
+      </c>
+      <c r="Q15" s="176" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="217" t="s">
-        <v>175</v>
-      </c>
-      <c r="N15" s="215" t="s">
-        <v>177</v>
-      </c>
-      <c r="O15" s="218">
-        <v>1</v>
-      </c>
-      <c r="P15" s="219">
-        <v>32874</v>
-      </c>
-      <c r="Q15" s="220" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" s="221" t="s">
-        <v>181</v>
-      </c>
-      <c r="S15" s="222">
+      <c r="R15" s="177">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16" s="59">
-        <f t="shared" ref="A16:A23" si="0">A15+1</f>
+        <f t="shared" ref="A16:A21" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -7821,13 +7784,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
@@ -7841,13 +7804,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
@@ -7861,13 +7824,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
@@ -7881,13 +7844,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>3</v>
@@ -7896,7 +7859,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="106" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7905,13 +7868,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>3</v>
@@ -7921,181 +7884,158 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="59">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="67"/>
-      <c r="G22" s="106" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="59">
-        <f t="shared" si="0"/>
+      <c r="G22" s="106"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A23" s="70">
         <v>10</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="66" t="s">
+      <c r="D23" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="106"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A24" s="70">
-        <v>11</v>
-      </c>
-      <c r="B24" s="130" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="131" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="132" t="s">
+      <c r="F23" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="133" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24">
+      <c r="A26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="213" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="214"/>
+      <c r="E26" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="225" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="226"/>
+      <c r="E27" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24">
-      <c r="A27" s="29" t="s">
+      <c r="F27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A28" s="57">
+        <v>2</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A29" s="56">
+        <v>3</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1">
+      <c r="A32" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="163" t="s">
+      <c r="B32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="164"/>
-      <c r="E27" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="14">
-        <v>1</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="175" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="176"/>
-      <c r="E28" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A29" s="57">
-        <v>2</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A30" s="56">
-        <v>3</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1">
-      <c r="A33" s="36" t="s">
+      <c r="D32" s="207"/>
+      <c r="E32" s="206" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="208"/>
+      <c r="G32" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="156" t="s">
+      <c r="C35" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="157"/>
-      <c r="E33" s="156" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="158"/>
-      <c r="G33" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1">
-      <c r="A36" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="156" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="157"/>
-      <c r="E36" s="156" t="s">
+      <c r="D35" s="207"/>
+      <c r="E35" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="158"/>
-      <c r="G36" s="38" t="s">
+      <c r="F35" s="208"/>
+      <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8111,21 +8051,21 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="R14" r:id="rId1"/>
-    <hyperlink ref="R15" r:id="rId2"/>
+    <hyperlink ref="Q14" r:id="rId1"/>
+    <hyperlink ref="Q15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
@@ -8148,7 +8088,7 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="L8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -8165,7 +8105,7 @@
     <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
     <col min="14" max="15" width="19.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="17" style="197" customWidth="1"/>
+    <col min="16" max="16" width="17" style="154" customWidth="1"/>
     <col min="17" max="17" width="17" style="13" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" style="13" customWidth="1"/>
     <col min="19" max="16384" width="8.85546875" style="13"/>
@@ -8180,110 +8120,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="182"/>
+      <c r="C2" s="227" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="232"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="177" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="178"/>
+      <c r="F2" s="227" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:19" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="183"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="179" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="180"/>
+      <c r="F3" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="230"/>
     </row>
     <row r="4" spans="1:19" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="183"/>
+      <c r="C4" s="231" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="233"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="180"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="230"/>
     </row>
     <row r="5" spans="1:19" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="181" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="183"/>
+      <c r="C5" s="231" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="233"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="180"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="230"/>
     </row>
     <row r="6" spans="1:19" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="181" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="183"/>
+      <c r="C6" s="231" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="233"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="180"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="230"/>
     </row>
     <row r="7" spans="1:19" ht="14.25">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="171"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" thickBot="1">
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="224"/>
     </row>
     <row r="12" spans="1:19" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -8308,40 +8248,40 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="201" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="224" t="s">
+      <c r="I13" s="158" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="179" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="224" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" s="224" t="s">
+      <c r="M13" s="179" t="s">
+        <v>175</v>
+      </c>
+      <c r="N13" s="179" t="s">
         <v>152</v>
       </c>
-      <c r="M13" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="N13" s="224" t="s">
-        <v>156</v>
-      </c>
-      <c r="O13" s="225" t="s">
-        <v>158</v>
+      <c r="O13" s="180" t="s">
+        <v>154</v>
       </c>
       <c r="Q13" s="128"/>
       <c r="R13" s="128"/>
-      <c r="S13" s="195"/>
+      <c r="S13" s="152"/>
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -8354,25 +8294,25 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="205">
+      <c r="I14" s="162">
         <v>1</v>
       </c>
-      <c r="J14" s="206" t="s">
+      <c r="J14" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="226">
+      <c r="L14" s="181">
         <v>41306</v>
       </c>
-      <c r="M14" s="227">
+      <c r="M14" s="182">
         <v>41770</v>
       </c>
-      <c r="N14" s="206">
+      <c r="N14" s="163">
         <v>0</v>
       </c>
-      <c r="O14" s="228">
+      <c r="O14" s="183">
         <v>1</v>
       </c>
       <c r="Q14" s="127"/>
@@ -8384,13 +8324,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -8398,25 +8338,25 @@
       <c r="F15" s="67"/>
       <c r="G15" s="107"/>
       <c r="H15" s="87"/>
-      <c r="I15" s="214">
+      <c r="I15" s="170">
         <v>2</v>
       </c>
-      <c r="J15" s="216" t="s">
+      <c r="J15" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="216" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="229">
+      <c r="L15" s="184">
         <v>41963</v>
       </c>
-      <c r="M15" s="230">
+      <c r="M15" s="185">
         <v>42063</v>
       </c>
-      <c r="N15" s="216">
+      <c r="N15" s="172">
         <v>0</v>
       </c>
-      <c r="O15" s="231">
+      <c r="O15" s="186">
         <v>2</v>
       </c>
       <c r="Q15" s="127"/>
@@ -8428,13 +8368,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -8452,10 +8392,10 @@
         <v>41</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E17" s="66"/>
       <c r="F17" s="67"/>
@@ -8470,10 +8410,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
@@ -8485,20 +8425,20 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="66"/>
       <c r="F19" s="137" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="106" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" thickBot="1">
@@ -8506,10 +8446,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="131" t="s">
         <v>154</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>158</v>
       </c>
       <c r="D20" s="131" t="s">
         <v>53</v>
@@ -8530,10 +8470,10 @@
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="163" t="s">
+      <c r="C23" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="164"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="34" t="s">
         <v>33</v>
       </c>
@@ -8551,10 +8491,10 @@
       <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="175" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="176"/>
+      <c r="C24" s="225" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="226"/>
       <c r="E24" s="46" t="s">
         <v>3</v>
       </c>
@@ -8568,8 +8508,8 @@
         <v>2</v>
       </c>
       <c r="B25" s="51"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="162"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="212"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="53"/>
@@ -8579,8 +8519,8 @@
         <v>3</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="160"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="210"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
       <c r="G26" s="55"/>
@@ -8597,14 +8537,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="156" t="s">
+      <c r="D29" s="207"/>
+      <c r="E29" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="158"/>
+      <c r="F29" s="208"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -8614,18 +8554,18 @@
         <v>1</v>
       </c>
       <c r="B30" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="184" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="184"/>
+        <v>155</v>
+      </c>
+      <c r="C30" s="234" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="234"/>
+      <c r="E30" s="234" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="234"/>
       <c r="G30" s="141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" thickBot="1">
@@ -8640,14 +8580,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="156" t="s">
+      <c r="C32" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="157"/>
-      <c r="E32" s="156" t="s">
+      <c r="D32" s="207"/>
+      <c r="E32" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="158"/>
+      <c r="F32" s="208"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -8693,7 +8633,7 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="K11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -8710,9 +8650,9 @@
     <col min="11" max="11" width="30" style="13" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="196" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="197" customWidth="1"/>
-    <col min="16" max="16" width="17" style="197" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="153" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="154" customWidth="1"/>
+    <col min="16" max="16" width="17" style="154" customWidth="1"/>
     <col min="17" max="17" width="17" style="13" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" style="13" customWidth="1"/>
     <col min="19" max="16384" width="8.85546875" style="13"/>
@@ -8727,110 +8667,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="182"/>
+      <c r="C2" s="227" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="232"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="177" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="178"/>
+      <c r="F2" s="227" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:26" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="183"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="179" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="180"/>
+      <c r="F3" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="230"/>
     </row>
     <row r="4" spans="1:26" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="183"/>
+      <c r="C4" s="231" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="233"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="180"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="230"/>
     </row>
     <row r="5" spans="1:26" ht="14.25">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="181" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="183"/>
+      <c r="C5" s="231" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="233"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="180"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="230"/>
     </row>
     <row r="6" spans="1:26" ht="14.25">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="181" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="183"/>
+      <c r="C6" s="231" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="233"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="180"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="230"/>
     </row>
     <row r="7" spans="1:26" ht="14.25">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="171"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" thickBot="1">
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="224"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="142" customFormat="1" ht="12.75" thickTop="1">
@@ -8855,34 +8795,34 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="223"/>
-      <c r="I13" s="234" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="235" t="s">
+      <c r="H13" s="178"/>
+      <c r="I13" s="189" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="190" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="190" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="190" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="235" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" s="235" t="s">
+      <c r="M13" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="N13" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="M13" s="235" t="s">
-        <v>182</v>
-      </c>
-      <c r="N13" s="235" t="s">
-        <v>156</v>
-      </c>
-      <c r="O13" s="236" t="s">
-        <v>166</v>
-      </c>
-      <c r="P13" s="237" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" s="233"/>
-      <c r="R13" s="233"/>
-      <c r="S13" s="233"/>
+      <c r="O13" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" s="192" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
       <c r="T13" s="143"/>
       <c r="U13" s="143"/>
       <c r="V13" s="143"/>
@@ -8896,10 +8836,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -8911,29 +8851,29 @@
       <c r="G14" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="232"/>
-      <c r="I14" s="238">
+      <c r="H14" s="187"/>
+      <c r="I14" s="193">
         <v>1</v>
       </c>
-      <c r="J14" s="207" t="s">
-        <v>183</v>
-      </c>
-      <c r="K14" s="207" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="226">
+      <c r="J14" s="164" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="181">
         <v>40901</v>
       </c>
-      <c r="M14" s="226">
+      <c r="M14" s="181">
         <v>41455</v>
       </c>
-      <c r="N14" s="239">
+      <c r="N14" s="194">
         <v>0</v>
       </c>
-      <c r="O14" s="209">
+      <c r="O14" s="166">
         <v>1</v>
       </c>
-      <c r="P14" s="240">
+      <c r="P14" s="195">
         <v>2</v>
       </c>
       <c r="Q14" s="144"/>
@@ -8945,42 +8885,42 @@
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107"/>
-      <c r="H15" s="232"/>
-      <c r="I15" s="241">
+      <c r="H15" s="187"/>
+      <c r="I15" s="196">
         <v>2</v>
       </c>
-      <c r="J15" s="242" t="s">
-        <v>184</v>
-      </c>
-      <c r="K15" s="242" t="s">
-        <v>186</v>
-      </c>
-      <c r="L15" s="246">
+      <c r="J15" s="197" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="197" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="201">
         <v>40493</v>
       </c>
-      <c r="M15" s="246">
+      <c r="M15" s="201">
         <v>41255</v>
       </c>
-      <c r="N15" s="243">
+      <c r="N15" s="198">
         <v>0</v>
       </c>
-      <c r="O15" s="244">
+      <c r="O15" s="199">
         <v>2</v>
       </c>
-      <c r="P15" s="245">
+      <c r="P15" s="200">
         <v>1</v>
       </c>
       <c r="Q15" s="144"/>
@@ -8992,23 +8932,23 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="117"/>
-      <c r="H16" s="232"/>
-      <c r="N16" s="200"/>
-      <c r="O16" s="199"/>
-      <c r="P16" s="199"/>
+      <c r="H16" s="187"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
     </row>
     <row r="17" spans="1:26" s="143" customFormat="1">
       <c r="A17" s="59">
@@ -9016,21 +8956,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E17" s="66"/>
       <c r="F17" s="67"/>
       <c r="G17" s="117"/>
-      <c r="H17" s="223"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="199"/>
-      <c r="P17" s="199"/>
+      <c r="H17" s="178"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
     </row>
     <row r="18" spans="1:26" s="143" customFormat="1">
       <c r="A18" s="59">
@@ -9040,19 +8980,19 @@
       <c r="B18" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="198" t="s">
-        <v>182</v>
+      <c r="C18" s="155" t="s">
+        <v>175</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
       <c r="G18" s="106"/>
-      <c r="H18" s="223"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
+      <c r="H18" s="178"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
     </row>
     <row r="19" spans="1:26" s="143" customFormat="1">
       <c r="A19" s="59">
@@ -9060,25 +9000,25 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="66"/>
       <c r="F19" s="137" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="106" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="223"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
+        <v>161</v>
+      </c>
+      <c r="H19" s="178"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
     </row>
     <row r="20" spans="1:26" s="143" customFormat="1">
       <c r="A20" s="59">
@@ -9086,10 +9026,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>53</v>
@@ -9097,10 +9037,10 @@
       <c r="E20" s="66"/>
       <c r="F20" s="67"/>
       <c r="G20" s="106"/>
-      <c r="H20" s="223"/>
-      <c r="N20" s="200"/>
-      <c r="O20" s="199"/>
-      <c r="P20" s="199"/>
+      <c r="H20" s="178"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
     </row>
     <row r="21" spans="1:26" s="150" customFormat="1" ht="12.75" thickBot="1">
       <c r="A21" s="70">
@@ -9108,10 +9048,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="68" t="s">
         <v>154</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>158</v>
       </c>
       <c r="D21" s="68" t="s">
         <v>53</v>
@@ -9119,15 +9059,15 @@
       <c r="E21" s="147"/>
       <c r="F21" s="148"/>
       <c r="G21" s="149"/>
-      <c r="H21" s="223"/>
+      <c r="H21" s="178"/>
       <c r="I21" s="143"/>
       <c r="J21" s="143"/>
       <c r="K21" s="143"/>
       <c r="L21" s="143"/>
       <c r="M21" s="143"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
       <c r="Q21" s="143"/>
       <c r="R21" s="143"/>
       <c r="S21" s="143"/>
@@ -9151,10 +9091,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="163" t="s">
+      <c r="C24" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="164"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9172,10 +9112,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="175" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="176"/>
+      <c r="C25" s="225" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="226"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9189,8 +9129,8 @@
         <v>2</v>
       </c>
       <c r="B26" s="51"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="162"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="212"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="53"/>
@@ -9200,8 +9140,8 @@
         <v>3</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="160"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="210"/>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="55"/>
@@ -9218,14 +9158,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="157"/>
-      <c r="E30" s="156" t="s">
+      <c r="D30" s="207"/>
+      <c r="E30" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="158"/>
+      <c r="F30" s="208"/>
       <c r="G30" s="38" t="s">
         <v>38</v>
       </c>
@@ -9235,18 +9175,18 @@
         <v>1</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="185" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="185"/>
+        <v>163</v>
+      </c>
+      <c r="C31" s="235" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="235"/>
+      <c r="E31" s="235" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="235"/>
       <c r="G31" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -9254,18 +9194,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="186" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="186"/>
+        <v>164</v>
+      </c>
+      <c r="C32" s="236" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="236"/>
+      <c r="E32" s="236" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="236"/>
       <c r="G32" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9286,14 +9226,14 @@
       <c r="B35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="156" t="s">
+      <c r="C35" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="157"/>
-      <c r="E35" s="156" t="s">
+      <c r="D35" s="207"/>
+      <c r="E35" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="158"/>
+      <c r="F35" s="208"/>
       <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
@@ -9365,103 +9305,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="182"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="177" t="s">
+      <c r="F2" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="178"/>
+      <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="183"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="181" t="s">
+      <c r="F3" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="180"/>
+      <c r="G3" s="230"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="183"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="180"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="230"/>
     </row>
     <row r="5" spans="1:11" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="183"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="180"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="230"/>
     </row>
     <row r="6" spans="1:11" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="231" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="183"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="180"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="230"/>
     </row>
     <row r="7" spans="1:11" ht="14.25">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="171"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" thickBot="1">
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="224"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9683,10 +9623,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="163" t="s">
+      <c r="C24" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="164"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9704,10 +9644,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="175" t="s">
+      <c r="C25" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="176"/>
+      <c r="D25" s="226"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9721,10 +9661,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="189" t="s">
+      <c r="C26" s="239" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="190"/>
+      <c r="D26" s="240"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -9743,14 +9683,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="156" t="s">
+      <c r="D29" s="207"/>
+      <c r="E29" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="158"/>
+      <c r="F29" s="208"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -9767,14 +9707,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="156" t="s">
+      <c r="C32" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="157"/>
-      <c r="E32" s="156" t="s">
+      <c r="D32" s="207"/>
+      <c r="E32" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="158"/>
+      <c r="F32" s="208"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -9784,14 +9724,14 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="187" t="s">
+      <c r="C33" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="189" t="s">
+      <c r="D33" s="238"/>
+      <c r="E33" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="190"/>
+      <c r="F33" s="240"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
@@ -9866,105 +9806,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="182"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="177" t="s">
+      <c r="F2" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="178"/>
+      <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="183"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="181" t="s">
+      <c r="F3" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="180"/>
+      <c r="G3" s="230"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="183"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="180"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="230"/>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="183"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="180"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="230"/>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="231" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="183"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="180"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="230"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="171"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" thickBot="1">
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="224"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10069,10 +10009,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="164"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -10090,10 +10030,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="175" t="s">
+      <c r="C20" s="225" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="176"/>
+      <c r="D20" s="226"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -10107,10 +10047,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="237" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="188"/>
+      <c r="D21" s="238"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -10129,14 +10069,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="157"/>
-      <c r="E24" s="156" t="s">
+      <c r="D24" s="207"/>
+      <c r="E24" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="158"/>
+      <c r="F24" s="208"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -10153,14 +10093,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="156" t="s">
+      <c r="C27" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="157"/>
-      <c r="E27" s="156" t="s">
+      <c r="D27" s="207"/>
+      <c r="E27" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="158"/>
+      <c r="F27" s="208"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -10170,10 +10110,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="190"/>
+      <c r="C28" s="237"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="240"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
@@ -10246,103 +10186,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="182"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="193" t="s">
+      <c r="F2" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="194"/>
+      <c r="G2" s="244"/>
     </row>
     <row r="3" spans="1:14" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="183"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="180"/>
+      <c r="F3" s="229" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="230"/>
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="183"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="180"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="230"/>
     </row>
     <row r="5" spans="1:14" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="183"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="180"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="230"/>
     </row>
     <row r="6" spans="1:14" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="183"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="180"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="230"/>
     </row>
     <row r="7" spans="1:14" ht="14.25">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="171"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" thickBot="1">
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="224"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -10558,10 +10498,10 @@
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="164"/>
+      <c r="D21" s="214"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -10585,10 +10525,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="225" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="176"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -10608,10 +10548,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="161" t="s">
+      <c r="C23" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="162"/>
+      <c r="D23" s="212"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -10629,10 +10569,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="188"/>
+      <c r="D24" s="238"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -10671,14 +10611,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="156" t="s">
+      <c r="C27" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="157"/>
-      <c r="E27" s="156" t="s">
+      <c r="D27" s="207"/>
+      <c r="E27" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="158"/>
+      <c r="F27" s="208"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -10715,14 +10655,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="157"/>
-      <c r="E30" s="156" t="s">
+      <c r="D30" s="207"/>
+      <c r="E30" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="158"/>
+      <c r="F30" s="208"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -10738,14 +10678,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="175" t="s">
+      <c r="C31" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="161" t="s">
+      <c r="D31" s="226"/>
+      <c r="E31" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="162"/>
+      <c r="F31" s="212"/>
       <c r="G31" s="53" t="s">
         <v>76</v>
       </c>
@@ -10761,14 +10701,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="192"/>
-      <c r="E32" s="189" t="s">
+      <c r="D32" s="242"/>
+      <c r="E32" s="239" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="190"/>
+      <c r="F32" s="240"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>

--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="818" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="191">
   <si>
     <t>No</t>
   </si>
@@ -673,6 +673,39 @@
   </si>
   <si>
     <t>Hibernate Framework is….</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>idx_username</t>
+  </si>
+  <si>
+    <t>idx_firstname</t>
+  </si>
+  <si>
+    <t>idx_lastname</t>
+  </si>
+  <si>
+    <t>idx_fullname</t>
+  </si>
+  <si>
+    <t>firstname, lastname</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>fk_posts_user1_idx</t>
+  </si>
+  <si>
+    <t>idx_desc_posts</t>
+  </si>
+  <si>
+    <t>idx_deact_posts</t>
+  </si>
+  <si>
+    <t>idx_desc_comments</t>
   </si>
 </sst>
 </file>
@@ -906,7 +939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1901,6 +1934,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3230,7 +3307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3805,12 +3882,75 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3826,69 +3966,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3921,6 +3998,18 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="443">
@@ -7457,10 +7546,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -7493,103 +7582,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="228"/>
+      <c r="G2" s="210"/>
     </row>
     <row r="3" spans="1:18" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="F3" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="4" spans="1:18" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="233"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="G4" s="230"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="212"/>
     </row>
     <row r="5" spans="1:18" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="208" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="230"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="212"/>
     </row>
     <row r="6" spans="1:18" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="208" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="233"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="212"/>
     </row>
     <row r="7" spans="1:18" ht="14.25">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="217"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="218"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="221"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="220"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
     </row>
     <row r="10" spans="1:18" ht="12.75" thickBot="1">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="226"/>
     </row>
     <row r="12" spans="1:18" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -7716,7 +7805,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -7830,7 +7919,7 @@
         <v>129</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
@@ -7893,7 +7982,7 @@
         <v>137</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>3</v>
@@ -7957,10 +8046,10 @@
       <c r="B27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="225" t="s">
+      <c r="C27" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="226"/>
+      <c r="D27" s="228"/>
       <c r="E27" s="46" t="s">
         <v>3</v>
       </c>
@@ -7969,98 +8058,136 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" ht="12.95" customHeight="1">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="57">
         <v>2</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="212"/>
+      <c r="B28" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="245" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="246"/>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="53"/>
     </row>
-    <row r="29" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A29" s="56">
+    <row r="29" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A29" s="57">
         <v>3</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A31" s="1" t="s">
+      <c r="B29" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="232" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="233"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A30" s="57">
+        <v>4</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="247" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="248"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A31" s="56">
+        <v>5</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="230" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="231"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
-      <c r="A32" s="36" t="s">
+    <row r="34" spans="1:7" ht="15" thickBot="1">
+      <c r="A34" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B34" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="206" t="s">
+      <c r="C34" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="207"/>
-      <c r="E32" s="206" t="s">
+      <c r="D34" s="216"/>
+      <c r="E34" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="208"/>
-      <c r="G32" s="38" t="s">
+      <c r="F34" s="229"/>
+      <c r="G34" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1">
-      <c r="A35" s="36" t="s">
+    <row r="37" spans="1:7" ht="15" thickBot="1">
+      <c r="A37" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="206" t="s">
+      <c r="C37" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="207"/>
-      <c r="E35" s="206" t="s">
+      <c r="D37" s="216"/>
+      <c r="E37" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="208"/>
-      <c r="G35" s="38" t="s">
+      <c r="F37" s="229"/>
+      <c r="G37" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8086,10 +8213,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="L8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -8120,103 +8247,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="228"/>
+      <c r="G2" s="210"/>
     </row>
     <row r="3" spans="1:19" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="F3" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="4" spans="1:19" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="233"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="G4" s="230"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="212"/>
     </row>
     <row r="5" spans="1:19" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="208" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="230"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="212"/>
     </row>
     <row r="6" spans="1:19" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="208" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="233"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="212"/>
     </row>
     <row r="7" spans="1:19" ht="14.25">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="217"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="218"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="221"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="220"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" thickBot="1">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="226"/>
     </row>
     <row r="12" spans="1:19" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8330,7 +8457,7 @@
         <v>144</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -8374,7 +8501,7 @@
         <v>146</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -8491,10 +8618,10 @@
       <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="225" t="s">
+      <c r="C24" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="226"/>
+      <c r="D24" s="228"/>
       <c r="E24" s="46" t="s">
         <v>3</v>
       </c>
@@ -8507,103 +8634,114 @@
       <c r="A25" s="57">
         <v>2</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="212"/>
+      <c r="B25" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="232"/>
+      <c r="D25" s="233"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="53"/>
     </row>
-    <row r="26" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A26" s="56">
+    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A26" s="57">
         <v>3</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A28" s="1" t="s">
+      <c r="B26" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="247" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="248"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A27" s="56">
+        <v>4</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="230" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="231"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1">
-      <c r="A29" s="36" t="s">
+    <row r="30" spans="1:7" ht="15" thickBot="1">
+      <c r="A30" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="206" t="s">
+      <c r="C30" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="207"/>
-      <c r="E29" s="206" t="s">
+      <c r="D30" s="216"/>
+      <c r="E30" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="208"/>
-      <c r="G29" s="38" t="s">
+      <c r="F30" s="229"/>
+      <c r="G30" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="139">
+    <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="139">
         <v>1</v>
       </c>
-      <c r="B30" s="140" t="s">
+      <c r="B31" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="234" t="s">
+      <c r="C31" s="234" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="234"/>
-      <c r="E30" s="234" t="s">
+      <c r="D31" s="234"/>
+      <c r="E31" s="234" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="234"/>
-      <c r="G30" s="141" t="s">
+      <c r="F31" s="234"/>
+      <c r="G31" s="141" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
-      <c r="A32" s="36" t="s">
+    <row r="33" spans="1:7" ht="15" thickBot="1">
+      <c r="A33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="206" t="s">
+      <c r="C33" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="207"/>
-      <c r="E32" s="206" t="s">
+      <c r="D33" s="216"/>
+      <c r="E33" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="208"/>
-      <c r="G32" s="38" t="s">
+      <c r="F33" s="229"/>
+      <c r="G33" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8616,6 +8754,16 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -8631,10 +8779,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView topLeftCell="K11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -8667,103 +8815,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="228"/>
+      <c r="G2" s="210"/>
     </row>
     <row r="3" spans="1:26" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="F3" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="4" spans="1:26" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="233"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="G4" s="230"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="212"/>
     </row>
     <row r="5" spans="1:26" ht="14.25">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="208" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="230"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="212"/>
     </row>
     <row r="6" spans="1:26" ht="14.25">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="233"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="212"/>
     </row>
     <row r="7" spans="1:26" ht="14.25">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="217"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="218"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="221"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="220"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" thickBot="1">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="226"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9112,10 +9260,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="225" t="s">
+      <c r="C25" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="226"/>
+      <c r="D25" s="228"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9128,130 +9276,141 @@
       <c r="A26" s="57">
         <v>2</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="211"/>
-      <c r="D26" s="212"/>
+      <c r="B26" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="232" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="233"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="53"/>
     </row>
-    <row r="27" spans="1:26" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A27" s="56">
+    <row r="27" spans="1:26" ht="12.95" customHeight="1">
+      <c r="A27" s="57">
         <v>3</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" thickBot="1">
-      <c r="A29" s="1" t="s">
+      <c r="B27" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="247" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="248"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A28" s="56">
+        <v>4</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="230" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="231"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" thickBot="1">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
-      <c r="A30" s="36" t="s">
+    <row r="31" spans="1:26" ht="15" thickBot="1">
+      <c r="A31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="206" t="s">
+      <c r="C31" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="207"/>
-      <c r="E30" s="206" t="s">
+      <c r="D31" s="216"/>
+      <c r="E31" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="208"/>
-      <c r="G30" s="38" t="s">
+      <c r="F31" s="229"/>
+      <c r="G31" s="38" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="13">
-        <v>1</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="235" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="235"/>
-      <c r="E31" s="235" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="235"/>
-      <c r="G31" s="138" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="236" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="236"/>
-      <c r="E32" s="236" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="236"/>
+        <v>163</v>
+      </c>
+      <c r="C32" s="235" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="235"/>
       <c r="G32" s="138" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" thickBot="1">
-      <c r="A34" s="1" t="s">
+      <c r="A33" s="13">
+        <v>2</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="236" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="236"/>
+      <c r="E33" s="236" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="236"/>
+      <c r="G33" s="138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1">
-      <c r="A35" s="36" t="s">
+    <row r="36" spans="1:7" ht="15" thickBot="1">
+      <c r="A36" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="206" t="s">
+      <c r="C36" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="207"/>
-      <c r="E35" s="206" t="s">
+      <c r="D36" s="216"/>
+      <c r="E36" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="208"/>
-      <c r="G35" s="38" t="s">
+      <c r="F36" s="229"/>
+      <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -9264,6 +9423,18 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -9305,103 +9476,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="228"/>
+      <c r="G2" s="210"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="231" t="s">
+      <c r="F3" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="233"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="G4" s="230"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="212"/>
     </row>
     <row r="5" spans="1:11" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="230"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="212"/>
     </row>
     <row r="6" spans="1:11" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="233"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="212"/>
     </row>
     <row r="7" spans="1:11" ht="14.25">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="217"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="218"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="221"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="220"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" thickBot="1">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="226"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9644,10 +9815,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="225" t="s">
+      <c r="C25" s="227" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="226"/>
+      <c r="D25" s="228"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9683,14 +9854,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="206" t="s">
+      <c r="C29" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="207"/>
-      <c r="E29" s="206" t="s">
+      <c r="D29" s="216"/>
+      <c r="E29" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="208"/>
+      <c r="F29" s="229"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -9707,14 +9878,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="206" t="s">
+      <c r="C32" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="207"/>
-      <c r="E32" s="206" t="s">
+      <c r="D32" s="216"/>
+      <c r="E32" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="208"/>
+      <c r="F32" s="229"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -9738,6 +9909,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -9750,15 +9930,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9806,105 +9977,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="228"/>
+      <c r="G2" s="210"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="231" t="s">
+      <c r="F3" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="233"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="G4" s="230"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="212"/>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="230"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="212"/>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="208" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="233"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="212"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="217"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="221"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="220"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" thickBot="1">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="226"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10030,10 +10201,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="225" t="s">
+      <c r="C20" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="226"/>
+      <c r="D20" s="228"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -10069,14 +10240,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="207"/>
-      <c r="E24" s="206" t="s">
+      <c r="D24" s="216"/>
+      <c r="E24" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="208"/>
+      <c r="F24" s="229"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -10093,14 +10264,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="206" t="s">
+      <c r="C27" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="207"/>
-      <c r="E27" s="206" t="s">
+      <c r="D27" s="216"/>
+      <c r="E27" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="208"/>
+      <c r="F27" s="229"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -10118,6 +10289,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -10130,15 +10310,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10186,10 +10357,10 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
@@ -10202,87 +10373,87 @@
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="F3" s="211" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="233"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="G4" s="230"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="212"/>
     </row>
     <row r="5" spans="1:14" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="230"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="212"/>
     </row>
     <row r="6" spans="1:14" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="233"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="212"/>
     </row>
     <row r="7" spans="1:14" ht="14.25">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="217"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="218"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="221"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="220"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" thickBot="1">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="226"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -10525,10 +10696,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="225" t="s">
+      <c r="C22" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="226"/>
+      <c r="D22" s="228"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -10548,10 +10719,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="211" t="s">
+      <c r="C23" s="232" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="212"/>
+      <c r="D23" s="233"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -10611,14 +10782,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="206" t="s">
+      <c r="C27" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="207"/>
-      <c r="E27" s="206" t="s">
+      <c r="D27" s="216"/>
+      <c r="E27" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="208"/>
+      <c r="F27" s="229"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -10655,14 +10826,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="206" t="s">
+      <c r="C30" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="207"/>
-      <c r="E30" s="206" t="s">
+      <c r="D30" s="216"/>
+      <c r="E30" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="208"/>
+      <c r="F30" s="229"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -10678,14 +10849,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="225" t="s">
+      <c r="C31" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="226"/>
-      <c r="E31" s="211" t="s">
+      <c r="D31" s="228"/>
+      <c r="E31" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="212"/>
+      <c r="F31" s="233"/>
       <c r="G31" s="53" t="s">
         <v>76</v>
       </c>
@@ -10761,14 +10932,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C31:D31"/>
@@ -10785,6 +10948,14 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TranAnhDuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="818" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="818" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -18,105 +18,124 @@
     <sheet name="users" sheetId="5" r:id="rId4"/>
     <sheet name="posts" sheetId="39" r:id="rId5"/>
     <sheet name="comments" sheetId="40" r:id="rId6"/>
-    <sheet name="edition" sheetId="36" state="hidden" r:id="rId7"/>
-    <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId8"/>
-    <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId9"/>
+    <sheet name="tokens" sheetId="41" r:id="rId7"/>
+    <sheet name="edition" sheetId="36" state="hidden" r:id="rId8"/>
+    <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId9"/>
+    <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="②画面" localSheetId="5">#REF!</definedName>
+    <definedName name="②画面" localSheetId="7">#REF!</definedName>
+    <definedName name="②画面" localSheetId="4">#REF!</definedName>
+    <definedName name="②画面" localSheetId="9">#REF!</definedName>
     <definedName name="②画面" localSheetId="6">#REF!</definedName>
-    <definedName name="②画面" localSheetId="4">#REF!</definedName>
     <definedName name="②画面" localSheetId="8">#REF!</definedName>
-    <definedName name="②画面" localSheetId="7">#REF!</definedName>
     <definedName name="②画面">#REF!</definedName>
     <definedName name="③画面" localSheetId="5">#REF!</definedName>
+    <definedName name="③画面" localSheetId="7">#REF!</definedName>
+    <definedName name="③画面" localSheetId="4">#REF!</definedName>
+    <definedName name="③画面" localSheetId="9">#REF!</definedName>
     <definedName name="③画面" localSheetId="6">#REF!</definedName>
-    <definedName name="③画面" localSheetId="4">#REF!</definedName>
     <definedName name="③画面" localSheetId="8">#REF!</definedName>
-    <definedName name="③画面" localSheetId="7">#REF!</definedName>
     <definedName name="③画面">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="4">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="8">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑤画面">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="4">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="8">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑧画面">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="4">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="8">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑨画面">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="4">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="8">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑫画面">#REF!</definedName>
+    <definedName name="a" localSheetId="6">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
+    <definedName name="aaa">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="5">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="7">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="4">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="6">#REF!</definedName>
-    <definedName name="AAAAAA" localSheetId="4">#REF!</definedName>
-    <definedName name="AAAAAA" localSheetId="7">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="8">#REF!</definedName>
     <definedName name="AAAAAA">#REF!</definedName>
     <definedName name="as" localSheetId="5">#REF!</definedName>
+    <definedName name="as" localSheetId="7">#REF!</definedName>
+    <definedName name="as" localSheetId="4">#REF!</definedName>
     <definedName name="as" localSheetId="6">#REF!</definedName>
-    <definedName name="as" localSheetId="4">#REF!</definedName>
-    <definedName name="as" localSheetId="7">#REF!</definedName>
+    <definedName name="as" localSheetId="8">#REF!</definedName>
     <definedName name="as">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="7">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="4">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="9">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="6">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="4">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="8">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="7">#REF!</definedName>
     <definedName name="ｄｄｄｄ">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="7">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="4">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="9">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="6">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="4">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="8">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="7">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ">#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="MySQL_DataType">[1]データタイプ!$B$2:$B$36</definedName>
     <definedName name="Oracle_DataType">[1]データタイプ!$A$2:$A$24</definedName>
+    <definedName name="tokens">#REF!</definedName>
     <definedName name="あ" localSheetId="5">#REF!</definedName>
+    <definedName name="あ" localSheetId="7">#REF!</definedName>
+    <definedName name="あ" localSheetId="4">#REF!</definedName>
+    <definedName name="あ" localSheetId="9">#REF!</definedName>
     <definedName name="あ" localSheetId="6">#REF!</definedName>
-    <definedName name="あ" localSheetId="4">#REF!</definedName>
     <definedName name="あ" localSheetId="8">#REF!</definedName>
-    <definedName name="あ" localSheetId="7">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
     <definedName name="ステータス" localSheetId="5">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="7">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="4">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="9">#REF!</definedName>
     <definedName name="ステータス" localSheetId="6">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="4">#REF!</definedName>
     <definedName name="ステータス" localSheetId="8">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="7">#REF!</definedName>
     <definedName name="ステータス">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="5">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="7">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="4">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="9">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="6">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="4">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="8">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="7">#REF!</definedName>
     <definedName name="画面一覧">#REF!</definedName>
     <definedName name="項番17" localSheetId="5">#REF!</definedName>
+    <definedName name="項番17" localSheetId="7">#REF!</definedName>
+    <definedName name="項番17" localSheetId="4">#REF!</definedName>
+    <definedName name="項番17" localSheetId="9">#REF!</definedName>
     <definedName name="項番17" localSheetId="6">#REF!</definedName>
-    <definedName name="項番17" localSheetId="4">#REF!</definedName>
     <definedName name="項番17" localSheetId="8">#REF!</definedName>
-    <definedName name="項番17" localSheetId="7">#REF!</definedName>
     <definedName name="項番17">#REF!</definedName>
     <definedName name="項番3" localSheetId="5">#REF!</definedName>
+    <definedName name="項番3" localSheetId="7">#REF!</definedName>
+    <definedName name="項番3" localSheetId="4">#REF!</definedName>
+    <definedName name="項番3" localSheetId="9">#REF!</definedName>
     <definedName name="項番3" localSheetId="6">#REF!</definedName>
-    <definedName name="項番3" localSheetId="4">#REF!</definedName>
     <definedName name="項番3" localSheetId="8">#REF!</definedName>
-    <definedName name="項番3" localSheetId="7">#REF!</definedName>
     <definedName name="項番3">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
@@ -129,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="203">
   <si>
     <t>No</t>
   </si>
@@ -706,6 +725,42 @@
   </si>
   <si>
     <t>idx_desc_comments</t>
+  </si>
+  <si>
+    <t>Token Info</t>
+  </si>
+  <si>
+    <t>tokens</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Token ID</t>
+  </si>
+  <si>
+    <t>Access token</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>Expired Date</t>
+  </si>
+  <si>
+    <t>expired</t>
+  </si>
+  <si>
+    <t>create_at</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>123dfadfdf</t>
+  </si>
+  <si>
+    <t>ggagddfa</t>
   </si>
 </sst>
 </file>
@@ -3307,7 +3362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3872,6 +3927,21 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3882,26 +3952,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3909,12 +3979,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3951,20 +4015,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3999,17 +4069,11 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="443">
@@ -5732,29 +5796,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="202"/>
-      <c r="P13" s="202"/>
-      <c r="Q13" s="202"/>
-      <c r="R13" s="202"/>
-      <c r="S13" s="202"/>
-      <c r="T13" s="202"/>
-      <c r="U13" s="202"/>
-      <c r="V13" s="202"/>
-      <c r="W13" s="202"/>
-      <c r="X13" s="202"/>
-      <c r="Y13" s="202"/>
-      <c r="Z13" s="202"/>
-      <c r="AA13" s="202"/>
-      <c r="AB13" s="202"/>
-      <c r="AC13" s="202"/>
-      <c r="AD13" s="202"/>
-      <c r="AE13" s="202"/>
-      <c r="AF13" s="202"/>
-      <c r="AG13" s="202"/>
-      <c r="AH13" s="202"/>
-      <c r="AI13" s="202"/>
-      <c r="AJ13" s="202"/>
-      <c r="AK13" s="202"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="207"/>
+      <c r="Q13" s="207"/>
+      <c r="R13" s="207"/>
+      <c r="S13" s="207"/>
+      <c r="T13" s="207"/>
+      <c r="U13" s="207"/>
+      <c r="V13" s="207"/>
+      <c r="W13" s="207"/>
+      <c r="X13" s="207"/>
+      <c r="Y13" s="207"/>
+      <c r="Z13" s="207"/>
+      <c r="AA13" s="207"/>
+      <c r="AB13" s="207"/>
+      <c r="AC13" s="207"/>
+      <c r="AD13" s="207"/>
+      <c r="AE13" s="207"/>
+      <c r="AF13" s="207"/>
+      <c r="AG13" s="207"/>
+      <c r="AH13" s="207"/>
+      <c r="AI13" s="207"/>
+      <c r="AJ13" s="207"/>
+      <c r="AK13" s="207"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5786,29 +5850,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="202"/>
-      <c r="R14" s="202"/>
-      <c r="S14" s="202"/>
-      <c r="T14" s="202"/>
-      <c r="U14" s="202"/>
-      <c r="V14" s="202"/>
-      <c r="W14" s="202"/>
-      <c r="X14" s="202"/>
-      <c r="Y14" s="202"/>
-      <c r="Z14" s="202"/>
-      <c r="AA14" s="202"/>
-      <c r="AB14" s="202"/>
-      <c r="AC14" s="202"/>
-      <c r="AD14" s="202"/>
-      <c r="AE14" s="202"/>
-      <c r="AF14" s="202"/>
-      <c r="AG14" s="202"/>
-      <c r="AH14" s="202"/>
-      <c r="AI14" s="202"/>
-      <c r="AJ14" s="202"/>
-      <c r="AK14" s="202"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="207"/>
+      <c r="Q14" s="207"/>
+      <c r="R14" s="207"/>
+      <c r="S14" s="207"/>
+      <c r="T14" s="207"/>
+      <c r="U14" s="207"/>
+      <c r="V14" s="207"/>
+      <c r="W14" s="207"/>
+      <c r="X14" s="207"/>
+      <c r="Y14" s="207"/>
+      <c r="Z14" s="207"/>
+      <c r="AA14" s="207"/>
+      <c r="AB14" s="207"/>
+      <c r="AC14" s="207"/>
+      <c r="AD14" s="207"/>
+      <c r="AE14" s="207"/>
+      <c r="AF14" s="207"/>
+      <c r="AG14" s="207"/>
+      <c r="AH14" s="207"/>
+      <c r="AI14" s="207"/>
+      <c r="AJ14" s="207"/>
+      <c r="AK14" s="207"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5836,43 +5900,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="203" t="s">
+      <c r="K15" s="208" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="203"/>
-      <c r="S15" s="203"/>
-      <c r="T15" s="203"/>
-      <c r="U15" s="203"/>
-      <c r="V15" s="203"/>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="203"/>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="203"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="203"/>
-      <c r="AD15" s="203"/>
-      <c r="AE15" s="203"/>
-      <c r="AF15" s="203"/>
-      <c r="AG15" s="203"/>
-      <c r="AH15" s="203"/>
-      <c r="AI15" s="203"/>
-      <c r="AJ15" s="203"/>
-      <c r="AK15" s="203"/>
-      <c r="AL15" s="203"/>
-      <c r="AM15" s="203"/>
-      <c r="AN15" s="203"/>
-      <c r="AO15" s="203"/>
-      <c r="AP15" s="203"/>
-      <c r="AQ15" s="203"/>
-      <c r="AR15" s="203"/>
-      <c r="AS15" s="203"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="208"/>
+      <c r="N15" s="208"/>
+      <c r="O15" s="208"/>
+      <c r="P15" s="208"/>
+      <c r="Q15" s="208"/>
+      <c r="R15" s="208"/>
+      <c r="S15" s="208"/>
+      <c r="T15" s="208"/>
+      <c r="U15" s="208"/>
+      <c r="V15" s="208"/>
+      <c r="W15" s="208"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="208"/>
+      <c r="Z15" s="208"/>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="208"/>
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="208"/>
+      <c r="AE15" s="208"/>
+      <c r="AF15" s="208"/>
+      <c r="AG15" s="208"/>
+      <c r="AH15" s="208"/>
+      <c r="AI15" s="208"/>
+      <c r="AJ15" s="208"/>
+      <c r="AK15" s="208"/>
+      <c r="AL15" s="208"/>
+      <c r="AM15" s="208"/>
+      <c r="AN15" s="208"/>
+      <c r="AO15" s="208"/>
+      <c r="AP15" s="208"/>
+      <c r="AQ15" s="208"/>
+      <c r="AR15" s="208"/>
+      <c r="AS15" s="208"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5892,41 +5956,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
-      <c r="O16" s="203"/>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="203"/>
-      <c r="R16" s="203"/>
-      <c r="S16" s="203"/>
-      <c r="T16" s="203"/>
-      <c r="U16" s="203"/>
-      <c r="V16" s="203"/>
-      <c r="W16" s="203"/>
-      <c r="X16" s="203"/>
-      <c r="Y16" s="203"/>
-      <c r="Z16" s="203"/>
-      <c r="AA16" s="203"/>
-      <c r="AB16" s="203"/>
-      <c r="AC16" s="203"/>
-      <c r="AD16" s="203"/>
-      <c r="AE16" s="203"/>
-      <c r="AF16" s="203"/>
-      <c r="AG16" s="203"/>
-      <c r="AH16" s="203"/>
-      <c r="AI16" s="203"/>
-      <c r="AJ16" s="203"/>
-      <c r="AK16" s="203"/>
-      <c r="AL16" s="203"/>
-      <c r="AM16" s="203"/>
-      <c r="AN16" s="203"/>
-      <c r="AO16" s="203"/>
-      <c r="AP16" s="203"/>
-      <c r="AQ16" s="203"/>
-      <c r="AR16" s="203"/>
-      <c r="AS16" s="203"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="208"/>
+      <c r="N16" s="208"/>
+      <c r="O16" s="208"/>
+      <c r="P16" s="208"/>
+      <c r="Q16" s="208"/>
+      <c r="R16" s="208"/>
+      <c r="S16" s="208"/>
+      <c r="T16" s="208"/>
+      <c r="U16" s="208"/>
+      <c r="V16" s="208"/>
+      <c r="W16" s="208"/>
+      <c r="X16" s="208"/>
+      <c r="Y16" s="208"/>
+      <c r="Z16" s="208"/>
+      <c r="AA16" s="208"/>
+      <c r="AB16" s="208"/>
+      <c r="AC16" s="208"/>
+      <c r="AD16" s="208"/>
+      <c r="AE16" s="208"/>
+      <c r="AF16" s="208"/>
+      <c r="AG16" s="208"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AJ16" s="208"/>
+      <c r="AK16" s="208"/>
+      <c r="AL16" s="208"/>
+      <c r="AM16" s="208"/>
+      <c r="AN16" s="208"/>
+      <c r="AO16" s="208"/>
+      <c r="AP16" s="208"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
+      <c r="AS16" s="208"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6515,14 +6579,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="204">
+      <c r="AN27" s="209">
         <v>41651</v>
       </c>
-      <c r="AO27" s="204"/>
-      <c r="AP27" s="204"/>
-      <c r="AQ27" s="204"/>
-      <c r="AR27" s="204"/>
-      <c r="AS27" s="204"/>
+      <c r="AO27" s="209"/>
+      <c r="AP27" s="209"/>
+      <c r="AQ27" s="209"/>
+      <c r="AR27" s="209"/>
+      <c r="AS27" s="209"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6981,6 +7045,652 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="12.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="232" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="237"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="248" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="249"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="236"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="234" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="235"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="236" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="238"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="236"/>
+      <c r="G4" s="235"/>
+    </row>
+    <row r="5" spans="1:14" ht="24">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="236" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="238"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="235"/>
+    </row>
+    <row r="6" spans="1:14" ht="24">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="236" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="238"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="235"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25">
+      <c r="B7" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="222"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="226"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="225"/>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" thickBot="1">
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="229"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="14">
+        <f t="shared" ref="A16:A18" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" thickBot="1">
+      <c r="A18" s="56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+    </row>
+    <row r="20" spans="1:14" ht="12.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+    </row>
+    <row r="21" spans="1:14" ht="24">
+      <c r="A21" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="218" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="219"/>
+      <c r="E21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.25">
+      <c r="A22" s="14">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="230" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="231"/>
+      <c r="E22" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A23" s="57">
+        <v>2</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="216" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="217"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="53"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1">
+      <c r="A24" s="16">
+        <v>3</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="243"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+    </row>
+    <row r="26" spans="1:14" ht="12.75" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1">
+      <c r="A27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="211" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="212"/>
+      <c r="E27" s="211" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="213"/>
+      <c r="G27" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+    </row>
+    <row r="29" spans="1:14" ht="12.75" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1">
+      <c r="A30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="211" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="212"/>
+      <c r="E30" s="211" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="213"/>
+      <c r="G30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+    </row>
+    <row r="31" spans="1:14" ht="14.25">
+      <c r="A31" s="57">
+        <v>1</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="230" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="231"/>
+      <c r="E31" s="216" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="217"/>
+      <c r="G31" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1">
+      <c r="A32" s="56">
+        <v>2</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="246" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="247"/>
+      <c r="E32" s="244" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="245"/>
+      <c r="G32" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+    </row>
+    <row r="33" spans="8:13">
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+    </row>
+    <row r="34" spans="8:13">
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+    </row>
+    <row r="35" spans="8:13">
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+    </row>
+    <row r="36" spans="8:13">
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+    </row>
+    <row r="37" spans="8:13">
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F34"/>
@@ -7270,7 +7980,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -7281,11 +7991,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" thickBot="1">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
     </row>
     <row r="2" spans="1:3" ht="12.75" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -7338,8 +8048,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
+      <c r="B6" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="59">
@@ -7582,103 +8296,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="207"/>
+      <c r="D2" s="237"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206" t="s">
+      <c r="F2" s="232" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="210"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="1:18" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="238"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="211" t="s">
+      <c r="F3" s="234" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="212"/>
+      <c r="G3" s="235"/>
     </row>
     <row r="4" spans="1:18" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="236" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="212"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="235"/>
     </row>
     <row r="5" spans="1:18" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="236" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="209"/>
+      <c r="D5" s="238"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="212"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="235"/>
     </row>
     <row r="6" spans="1:18" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="209"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="212"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="235"/>
     </row>
     <row r="7" spans="1:18" ht="14.25">
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="222"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="220"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="223"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="225"/>
     </row>
     <row r="10" spans="1:18" ht="12.75" thickBot="1">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="229"/>
     </row>
     <row r="12" spans="1:18" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8025,10 +8739,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="213" t="s">
+      <c r="C26" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="214"/>
+      <c r="D26" s="219"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -8046,10 +8760,10 @@
       <c r="B27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="228"/>
+      <c r="D27" s="231"/>
       <c r="E27" s="46" t="s">
         <v>3</v>
       </c>
@@ -8065,10 +8779,10 @@
       <c r="B28" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="245" t="s">
+      <c r="C28" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="246"/>
+      <c r="D28" s="204"/>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="53"/>
@@ -8080,10 +8794,10 @@
       <c r="B29" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="232" t="s">
+      <c r="C29" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="233"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
       <c r="G29" s="53"/>
@@ -8095,10 +8809,10 @@
       <c r="B30" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="247" t="s">
+      <c r="C30" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="248"/>
+      <c r="D30" s="206"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
       <c r="G30" s="53"/>
@@ -8110,10 +8824,10 @@
       <c r="B31" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="230" t="s">
+      <c r="C31" s="214" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="231"/>
+      <c r="D31" s="215"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
       <c r="G31" s="55"/>
@@ -8130,14 +8844,14 @@
       <c r="B34" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="215" t="s">
+      <c r="C34" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="216"/>
-      <c r="E34" s="215" t="s">
+      <c r="D34" s="212"/>
+      <c r="E34" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="229"/>
+      <c r="F34" s="213"/>
       <c r="G34" s="38" t="s">
         <v>38</v>
       </c>
@@ -8154,40 +8868,40 @@
       <c r="B37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="215" t="s">
+      <c r="C37" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="215" t="s">
+      <c r="D37" s="212"/>
+      <c r="E37" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="229"/>
+      <c r="F37" s="213"/>
       <c r="G37" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8247,103 +8961,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="207"/>
+      <c r="D2" s="237"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206" t="s">
+      <c r="F2" s="232" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="210"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="1:19" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="238"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="211" t="s">
+      <c r="F3" s="234" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="212"/>
+      <c r="G3" s="235"/>
     </row>
     <row r="4" spans="1:19" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="236" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="212"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="235"/>
     </row>
     <row r="5" spans="1:19" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="236" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="209"/>
+      <c r="D5" s="238"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="212"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="235"/>
     </row>
     <row r="6" spans="1:19" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="236" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="209"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="212"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="235"/>
     </row>
     <row r="7" spans="1:19" ht="14.25">
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="222"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="220"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="223"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="225"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" thickBot="1">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="229"/>
     </row>
     <row r="12" spans="1:19" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8597,10 +9311,10 @@
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="213" t="s">
+      <c r="C23" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="214"/>
+      <c r="D23" s="219"/>
       <c r="E23" s="34" t="s">
         <v>33</v>
       </c>
@@ -8618,10 +9332,10 @@
       <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="227" t="s">
+      <c r="C24" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="228"/>
+      <c r="D24" s="231"/>
       <c r="E24" s="46" t="s">
         <v>3</v>
       </c>
@@ -8637,8 +9351,8 @@
       <c r="B25" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="232"/>
-      <c r="D25" s="233"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="53"/>
@@ -8650,10 +9364,10 @@
       <c r="B26" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="247" t="s">
+      <c r="C26" s="205" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="248"/>
+      <c r="D26" s="206"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="53"/>
@@ -8665,10 +9379,10 @@
       <c r="B27" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="230" t="s">
+      <c r="C27" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="231"/>
+      <c r="D27" s="215"/>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="55"/>
@@ -8685,14 +9399,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="215" t="s">
+      <c r="C30" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="216"/>
-      <c r="E30" s="215" t="s">
+      <c r="D30" s="212"/>
+      <c r="E30" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="229"/>
+      <c r="F30" s="213"/>
       <c r="G30" s="38" t="s">
         <v>38</v>
       </c>
@@ -8704,14 +9418,14 @@
       <c r="B31" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="234" t="s">
+      <c r="C31" s="239" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234" t="s">
+      <c r="D31" s="239"/>
+      <c r="E31" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="234"/>
+      <c r="F31" s="239"/>
       <c r="G31" s="141" t="s">
         <v>110</v>
       </c>
@@ -8728,20 +9442,30 @@
       <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="215" t="s">
+      <c r="C33" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="216"/>
-      <c r="E33" s="215" t="s">
+      <c r="D33" s="212"/>
+      <c r="E33" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="229"/>
+      <c r="F33" s="213"/>
       <c r="G33" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8754,16 +9478,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -8781,7 +9495,7 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -8815,103 +9529,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="207"/>
+      <c r="D2" s="237"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206" t="s">
+      <c r="F2" s="232" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="210"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="1:26" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="238"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="211" t="s">
+      <c r="F3" s="234" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="212"/>
+      <c r="G3" s="235"/>
     </row>
     <row r="4" spans="1:26" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="236" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="212"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="235"/>
     </row>
     <row r="5" spans="1:26" ht="14.25">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="209"/>
+      <c r="D5" s="238"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="212"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="235"/>
     </row>
     <row r="6" spans="1:26" ht="14.25">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="236" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="209"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="212"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="235"/>
     </row>
     <row r="7" spans="1:26" ht="14.25">
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="222"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="220"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="223"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="225"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" thickBot="1">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="229"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9239,10 +9953,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="213" t="s">
+      <c r="C24" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="214"/>
+      <c r="D24" s="219"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9260,10 +9974,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="227" t="s">
+      <c r="C25" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="228"/>
+      <c r="D25" s="231"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9279,10 +9993,10 @@
       <c r="B26" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="216" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="233"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="53"/>
@@ -9294,10 +10008,10 @@
       <c r="B27" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="247" t="s">
+      <c r="C27" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="248"/>
+      <c r="D27" s="206"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
       <c r="G27" s="53"/>
@@ -9309,10 +10023,10 @@
       <c r="B28" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="230" t="s">
+      <c r="C28" s="214" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="231"/>
+      <c r="D28" s="215"/>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
       <c r="G28" s="55"/>
@@ -9329,14 +10043,14 @@
       <c r="B31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="215" t="s">
+      <c r="C31" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="216"/>
-      <c r="E31" s="215" t="s">
+      <c r="D31" s="212"/>
+      <c r="E31" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="229"/>
+      <c r="F31" s="213"/>
       <c r="G31" s="38" t="s">
         <v>38</v>
       </c>
@@ -9348,14 +10062,14 @@
       <c r="B32" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="235" t="s">
+      <c r="C32" s="240" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="235"/>
-      <c r="E32" s="235" t="s">
+      <c r="D32" s="240"/>
+      <c r="E32" s="240" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="235"/>
+      <c r="F32" s="240"/>
       <c r="G32" s="138" t="s">
         <v>110</v>
       </c>
@@ -9367,14 +10081,14 @@
       <c r="B33" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="236" t="s">
+      <c r="C33" s="241" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236" t="s">
+      <c r="D33" s="241"/>
+      <c r="E33" s="241" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="236"/>
+      <c r="F33" s="241"/>
       <c r="G33" s="138" t="s">
         <v>110</v>
       </c>
@@ -9397,20 +10111,32 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="215" t="s">
+      <c r="C36" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="216"/>
-      <c r="E36" s="215" t="s">
+      <c r="D36" s="212"/>
+      <c r="E36" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="229"/>
+      <c r="F36" s="213"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -9423,18 +10149,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -9446,6 +10160,550 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="30" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="17" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="12.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="14.25">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="232" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="237"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="232" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="233"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.25">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="236"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="234" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="235"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.25">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="236" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="238"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="236"/>
+      <c r="G4" s="235"/>
+    </row>
+    <row r="5" spans="1:22" ht="14.25">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="236" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="238"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="235"/>
+    </row>
+    <row r="6" spans="1:22" ht="14.25">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="236" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="238"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="235"/>
+    </row>
+    <row r="7" spans="1:22" ht="14.25">
+      <c r="B7" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="222"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="226"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="225"/>
+    </row>
+    <row r="10" spans="1:22" ht="12.75" thickBot="1">
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="229"/>
+    </row>
+    <row r="12" spans="1:22" ht="12.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="142" customFormat="1">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="179" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="179" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="143"/>
+    </row>
+    <row r="14" spans="1:22" s="143" customFormat="1">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="187"/>
+      <c r="I14" s="164" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="181">
+        <v>40901</v>
+      </c>
+      <c r="K14" s="181">
+        <v>40902</v>
+      </c>
+      <c r="L14" s="250">
+        <v>1</v>
+      </c>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+    </row>
+    <row r="15" spans="1:22" s="143" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A15" s="59">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="171" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="171" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15" s="184">
+        <v>40493</v>
+      </c>
+      <c r="L15" s="251">
+        <v>41255</v>
+      </c>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+    </row>
+    <row r="16" spans="1:22" s="143" customFormat="1">
+      <c r="A16" s="59">
+        <v>3</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="178"/>
+    </row>
+    <row r="17" spans="1:22" s="143" customFormat="1">
+      <c r="A17" s="59">
+        <f t="shared" ref="A17" si="0">A16+1</f>
+        <v>4</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="178"/>
+    </row>
+    <row r="18" spans="1:22" s="150" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A18" s="70">
+        <v>5</v>
+      </c>
+      <c r="B18" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+    </row>
+    <row r="20" spans="1:22" ht="12.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="24">
+      <c r="A21" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="218" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="219"/>
+      <c r="E21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.25">
+      <c r="A22" s="14">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="230" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="231"/>
+      <c r="E22" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:22" ht="12.95" customHeight="1">
+      <c r="A23" s="57">
+        <v>2</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="216" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="217"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="1:22" ht="12.95" customHeight="1">
+      <c r="A24" s="57">
+        <v>3</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="205" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="206"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A25" s="56">
+        <v>4</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="214" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="215"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="27" spans="1:22" ht="12.75" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" thickBot="1">
+      <c r="A28" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="211" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="212"/>
+      <c r="E28" s="211" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="213"/>
+      <c r="G28" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="13">
+        <v>1</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="240" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="240"/>
+      <c r="E29" s="240" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="240"/>
+      <c r="G29" s="138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="13">
+        <v>2</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="241"/>
+      <c r="G30" s="138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
+    </row>
+    <row r="32" spans="1:22" ht="12.75" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1">
+      <c r="A33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="211" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="212"/>
+      <c r="E33" s="211" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="213"/>
+      <c r="G33" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF008000"/>
@@ -9476,103 +10734,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="207"/>
+      <c r="D2" s="237"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206" t="s">
+      <c r="F2" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="210"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="238"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="212"/>
+      <c r="G3" s="235"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="212"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="235"/>
     </row>
     <row r="5" spans="1:11" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="209"/>
+      <c r="D5" s="238"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="212"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="235"/>
     </row>
     <row r="6" spans="1:11" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="236" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="209"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="212"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="235"/>
     </row>
     <row r="7" spans="1:11" ht="14.25">
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="222"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="220"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="223"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="225"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" thickBot="1">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="229"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9794,10 +11052,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="213" t="s">
+      <c r="C24" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="214"/>
+      <c r="D24" s="219"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9815,10 +11073,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="227" t="s">
+      <c r="C25" s="230" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="228"/>
+      <c r="D25" s="231"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9832,10 +11090,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="239" t="s">
+      <c r="C26" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="240"/>
+      <c r="D26" s="245"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -9854,14 +11112,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="215" t="s">
+      <c r="C29" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="216"/>
-      <c r="E29" s="215" t="s">
+      <c r="D29" s="212"/>
+      <c r="E29" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="229"/>
+      <c r="F29" s="213"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -9878,14 +11136,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="215" t="s">
+      <c r="C32" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="216"/>
-      <c r="E32" s="215" t="s">
+      <c r="D32" s="212"/>
+      <c r="E32" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="229"/>
+      <c r="F32" s="213"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -9895,29 +11153,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="237" t="s">
+      <c r="C33" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="238"/>
-      <c r="E33" s="239" t="s">
+      <c r="D33" s="243"/>
+      <c r="E33" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="240"/>
+      <c r="F33" s="245"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -9930,6 +11179,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9946,7 +11204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF008000"/>
@@ -9977,105 +11235,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="207"/>
+      <c r="D2" s="237"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="206" t="s">
+      <c r="F2" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="210"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="238"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="212"/>
+      <c r="G3" s="235"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="212"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="235"/>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="236" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="209"/>
+      <c r="D5" s="238"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="212"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="235"/>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="209"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="212"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="235"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="222"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="220" t="s">
+      <c r="B8" s="223" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="223"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="225"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" thickBot="1">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="229"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10180,10 +11438,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="213" t="s">
+      <c r="C19" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="214"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -10201,10 +11459,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="227" t="s">
+      <c r="C20" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="228"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -10218,10 +11476,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="237" t="s">
+      <c r="C21" s="242" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="238"/>
+      <c r="D21" s="243"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -10240,14 +11498,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="215" t="s">
+      <c r="C24" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="216"/>
-      <c r="E24" s="215" t="s">
+      <c r="D24" s="212"/>
+      <c r="E24" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="229"/>
+      <c r="F24" s="213"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -10264,14 +11522,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="215" t="s">
+      <c r="C27" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="216"/>
-      <c r="E27" s="215" t="s">
+      <c r="D27" s="212"/>
+      <c r="E27" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="229"/>
+      <c r="F27" s="213"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -10281,23 +11539,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="240"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="245"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -10310,652 +11559,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="18" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="18" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="12.75" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25">
-      <c r="B2" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="206" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="243" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="244"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.25">
-      <c r="B3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="211" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="212"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.25">
-      <c r="B4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="208" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="212"/>
-    </row>
-    <row r="5" spans="1:14" ht="24">
-      <c r="B5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="208" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="212"/>
-    </row>
-    <row r="6" spans="1:14" ht="24">
-      <c r="B6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="208" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="212"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25">
-      <c r="B7" s="217" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="220"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="223"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
-    </row>
-    <row r="10" spans="1:14" ht="12.75" thickBot="1">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:14" ht="12.75" thickBot="1">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="14">
-        <f>A14+1</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="14">
-        <f t="shared" ref="A16:A18" si="0">A15+1</f>
-        <v>3</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" thickBot="1">
-      <c r="A18" s="56">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-    </row>
-    <row r="20" spans="1:14" ht="12.75" thickBot="1">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-    </row>
-    <row r="21" spans="1:14" ht="24">
-      <c r="A21" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="213" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.25">
-      <c r="A22" s="14">
-        <v>1</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="227" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="228"/>
-      <c r="E22" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-    </row>
-    <row r="23" spans="1:14" ht="12.95" customHeight="1">
-      <c r="A23" s="57">
-        <v>2</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="232" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="233"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1">
-      <c r="A24" s="16">
-        <v>3</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="237" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="238"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-    </row>
-    <row r="26" spans="1:14" ht="12.75" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1">
-      <c r="A27" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="215" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="216"/>
-      <c r="E27" s="215" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="229"/>
-      <c r="G27" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-    </row>
-    <row r="29" spans="1:14" ht="12.75" thickBot="1">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1">
-      <c r="A30" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="215" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="216"/>
-      <c r="E30" s="215" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="229"/>
-      <c r="G30" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.25">
-      <c r="A31" s="57">
-        <v>1</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="227" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="228"/>
-      <c r="E31" s="232" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="233"/>
-      <c r="G31" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1">
-      <c r="A32" s="56">
-        <v>2</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="241" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="242"/>
-      <c r="E32" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="240"/>
-      <c r="G32" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-    </row>
-    <row r="33" spans="8:13">
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-    </row>
-    <row r="34" spans="8:13">
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-    </row>
-    <row r="35" spans="8:13">
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-    </row>
-    <row r="36" spans="8:13">
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-    </row>
-    <row r="37" spans="8:13">
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
